--- a/Code/Results/Cases/Case_0_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_line/loading_percent.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.37019207374404</v>
+        <v>4.370192073743946</v>
       </c>
       <c r="D2">
-        <v>5.034037115125054</v>
+        <v>5.034037115125055</v>
       </c>
       <c r="E2">
-        <v>12.57156575448114</v>
+        <v>12.57156575448111</v>
       </c>
       <c r="F2">
-        <v>44.36757484780781</v>
+        <v>44.36757484780722</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>33.02165009170091</v>
+        <v>33.02165009170048</v>
       </c>
       <c r="I2">
-        <v>10.21144254713736</v>
+        <v>10.21144254713733</v>
       </c>
       <c r="J2">
-        <v>102.5130698599411</v>
+        <v>102.5130698599408</v>
       </c>
       <c r="K2">
-        <v>9.48287342448322</v>
+        <v>9.482873424483179</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.886033084710184</v>
+        <v>3.886033084709991</v>
       </c>
       <c r="D3">
-        <v>4.274086971900122</v>
+        <v>4.274086971900188</v>
       </c>
       <c r="E3">
-        <v>11.64474222015614</v>
+        <v>11.64474222015613</v>
       </c>
       <c r="F3">
-        <v>39.23894625056263</v>
+        <v>39.23894625056244</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>29.1300214218142</v>
+        <v>29.13002142181411</v>
       </c>
       <c r="I3">
-        <v>9.264213942923627</v>
+        <v>9.264213942923616</v>
       </c>
       <c r="J3">
-        <v>94.4010585492419</v>
+        <v>94.40105854924199</v>
       </c>
       <c r="K3">
-        <v>8.652950117955305</v>
+        <v>8.652950117955275</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.60177279266789</v>
+        <v>3.601772792667906</v>
       </c>
       <c r="D4">
-        <v>3.833722427160117</v>
+        <v>3.83372242716012</v>
       </c>
       <c r="E4">
         <v>11.08045705633396</v>
       </c>
       <c r="F4">
-        <v>36.28479384370452</v>
+        <v>36.28479384370459</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>26.87388707023648</v>
+        <v>26.87388707023654</v>
       </c>
       <c r="I4">
-        <v>8.689502237969428</v>
+        <v>8.68950223796941</v>
       </c>
       <c r="J4">
-        <v>89.33240224890893</v>
+        <v>89.33240224890896</v>
       </c>
       <c r="K4">
-        <v>8.196633426627805</v>
+        <v>8.196633426627818</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.487959186638988</v>
+        <v>3.487959186639082</v>
       </c>
       <c r="D5">
-        <v>3.658818624454779</v>
+        <v>3.65881862445478</v>
       </c>
       <c r="E5">
-        <v>10.85053604203084</v>
+        <v>10.85053604203087</v>
       </c>
       <c r="F5">
-        <v>35.11907908039937</v>
+        <v>35.11907908039941</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>25.97967804130776</v>
+        <v>25.97967804130777</v>
       </c>
       <c r="I5">
-        <v>8.455286963719958</v>
+        <v>8.455286963719931</v>
       </c>
       <c r="J5">
-        <v>87.23548627668676</v>
+        <v>87.23548627668673</v>
       </c>
       <c r="K5">
-        <v>8.050724792250316</v>
+        <v>8.050724792250339</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.469153298790898</v>
+        <v>3.469153298790809</v>
       </c>
       <c r="D6">
-        <v>3.630002471323047</v>
+        <v>3.630002471322982</v>
       </c>
       <c r="E6">
-        <v>10.81233361618062</v>
+        <v>10.81233361618058</v>
       </c>
       <c r="F6">
-        <v>34.9275780177305</v>
+        <v>34.92757801773014</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>25.8325317125831</v>
+        <v>25.83253171258281</v>
       </c>
       <c r="I6">
-        <v>8.416353594097355</v>
+        <v>8.416353594097275</v>
       </c>
       <c r="J6">
-        <v>86.88517676228103</v>
+        <v>86.88517676228089</v>
       </c>
       <c r="K6">
-        <v>8.026674759644145</v>
+        <v>8.026674759644125</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.600231039435026</v>
+        <v>3.600231039435237</v>
       </c>
       <c r="D7">
-        <v>3.831347445909265</v>
+        <v>3.831347445909398</v>
       </c>
       <c r="E7">
-        <v>11.07735736676054</v>
+        <v>11.07735736676056</v>
       </c>
       <c r="F7">
-        <v>36.26892946327811</v>
+        <v>36.26892946327832</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>26.86173419002181</v>
+        <v>26.86173419002198</v>
       </c>
       <c r="I7">
-        <v>8.686345510933927</v>
+        <v>8.686345510933947</v>
       </c>
       <c r="J7">
-        <v>89.30425996045496</v>
+        <v>89.30425996045498</v>
       </c>
       <c r="K7">
-        <v>8.194653243654464</v>
+        <v>8.194653243654477</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.199660880133989</v>
+        <v>4.199660880133896</v>
       </c>
       <c r="D8">
-        <v>4.76508605993978</v>
+        <v>4.765086059939646</v>
       </c>
       <c r="E8">
-        <v>12.25013186216115</v>
+        <v>12.25013186216116</v>
       </c>
       <c r="F8">
-        <v>42.55065852609653</v>
+        <v>42.55065852609698</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>31.64594552126787</v>
+        <v>31.6459455212682</v>
       </c>
       <c r="I8">
-        <v>9.882154681542014</v>
+        <v>9.882154681542062</v>
       </c>
       <c r="J8">
-        <v>99.72766832934924</v>
+        <v>99.72766832934931</v>
       </c>
       <c r="K8">
-        <v>9.195381354908019</v>
+        <v>9.195381354908037</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.571691209729551</v>
+        <v>5.571691209729769</v>
       </c>
       <c r="D9">
-        <v>6.95938439649907</v>
+        <v>6.959384396499205</v>
       </c>
       <c r="E9">
-        <v>14.72088074987837</v>
+        <v>14.72088074987832</v>
       </c>
       <c r="F9">
-        <v>57.31100614482412</v>
+        <v>57.31100614482396</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>42.76302654919958</v>
+        <v>42.7630265491995</v>
       </c>
       <c r="I9">
-        <v>12.41367977386023</v>
+        <v>12.41367977386016</v>
       </c>
       <c r="J9">
-        <v>120.1550455990715</v>
+        <v>120.1550455990716</v>
       </c>
       <c r="K9">
-        <v>11.37683277516214</v>
+        <v>11.3768327751621</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.006144276292186</v>
+        <v>7.006144276292233</v>
       </c>
       <c r="D10">
-        <v>9.306984467926988</v>
+        <v>9.306984467927121</v>
       </c>
       <c r="E10">
-        <v>17.0827133977932</v>
+        <v>17.08271339779321</v>
       </c>
       <c r="F10">
-        <v>72.7603639046098</v>
+        <v>72.76036390461036</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>54.32234899185197</v>
+        <v>54.3223489918524</v>
       </c>
       <c r="I10">
-        <v>14.82604611169078</v>
+        <v>14.82604611169084</v>
       </c>
       <c r="J10">
-        <v>137.355414125754</v>
+        <v>137.3554141257542</v>
       </c>
       <c r="K10">
-        <v>13.39149202012348</v>
+        <v>13.39149202012349</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.089091180385175</v>
+        <v>8.089091180385147</v>
       </c>
       <c r="D11">
-        <v>11.10451081585549</v>
+        <v>11.10451081585536</v>
       </c>
       <c r="E11">
-        <v>18.63389425341643</v>
+        <v>18.63389425341638</v>
       </c>
       <c r="F11">
-        <v>84.30250144098521</v>
+        <v>84.30250144098453</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>62.93943965348128</v>
+        <v>62.93943965348079</v>
       </c>
       <c r="I11">
-        <v>16.53340384657396</v>
+        <v>16.5334038465739</v>
       </c>
       <c r="J11">
-        <v>148.0246787815984</v>
+        <v>148.0246787815978</v>
       </c>
       <c r="K11">
-        <v>14.77775946511378</v>
+        <v>14.77775946511375</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.853944716319917</v>
+        <v>8.853944716319766</v>
       </c>
       <c r="D12">
-        <v>12.38547057381899</v>
+        <v>12.38547057381892</v>
       </c>
       <c r="E12">
-        <v>19.62998887671019</v>
+        <v>19.62998887671015</v>
       </c>
       <c r="F12">
-        <v>92.37940564382279</v>
+        <v>92.37940564382244</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>68.96596817508355</v>
+        <v>68.96596817508329</v>
       </c>
       <c r="I12">
-        <v>17.69631892917245</v>
+        <v>17.6963189291724</v>
       </c>
       <c r="J12">
-        <v>154.4966579150377</v>
+        <v>154.4966579150374</v>
       </c>
       <c r="K12">
-        <v>15.70284616229961</v>
+        <v>15.70284616229957</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,31 +833,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.635379727933005</v>
+        <v>8.63537972793328</v>
       </c>
       <c r="D13">
-        <v>12.01847685865448</v>
+        <v>12.01847685865454</v>
       </c>
       <c r="E13">
-        <v>19.35302158583593</v>
+        <v>19.35302158583595</v>
       </c>
       <c r="F13">
-        <v>90.0777569356911</v>
+        <v>90.07775693569172</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>67.24873720115916</v>
+        <v>67.24873720115959</v>
       </c>
       <c r="I13">
-        <v>17.36702703695541</v>
+        <v>17.36702703695551</v>
       </c>
       <c r="J13">
-        <v>152.7330931906799</v>
+        <v>152.73309319068</v>
       </c>
       <c r="K13">
-        <v>15.44247014866671</v>
+        <v>15.44247014866678</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,31 +871,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.136484731010265</v>
+        <v>8.136484731010297</v>
       </c>
       <c r="D14">
         <v>11.18361458514083</v>
       </c>
       <c r="E14">
-        <v>18.69786208518378</v>
+        <v>18.6978620851837</v>
       </c>
       <c r="F14">
-        <v>84.80480456048944</v>
+        <v>84.80480456048934</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>63.31427935581688</v>
+        <v>63.31427935581675</v>
       </c>
       <c r="I14">
-        <v>16.6063747831434</v>
+        <v>16.60637478314331</v>
       </c>
       <c r="J14">
-        <v>148.4504585539061</v>
+        <v>148.4504585539057</v>
       </c>
       <c r="K14">
-        <v>14.83626320902062</v>
+        <v>14.83626320902056</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,31 +909,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.903821063025723</v>
+        <v>7.903821063025681</v>
       </c>
       <c r="D15">
-        <v>10.79562454795172</v>
+        <v>10.79562454795192</v>
       </c>
       <c r="E15">
-        <v>18.38083644102157</v>
+        <v>18.38083644102163</v>
       </c>
       <c r="F15">
-        <v>82.33660220761455</v>
+        <v>82.33660220761493</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>61.47230683659019</v>
+        <v>61.47230683659052</v>
       </c>
       <c r="I15">
-        <v>16.246865607031</v>
+        <v>16.24686560703111</v>
       </c>
       <c r="J15">
-        <v>146.328064533904</v>
+        <v>146.3280645339045</v>
       </c>
       <c r="K15">
-        <v>14.54743880513451</v>
+        <v>14.54743880513455</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.951517252529794</v>
+        <v>6.951517252529595</v>
       </c>
       <c r="D16">
-        <v>9.216839332274358</v>
+        <v>9.21683933227456</v>
       </c>
       <c r="E16">
-        <v>16.99960902492637</v>
+        <v>16.99960902492643</v>
       </c>
       <c r="F16">
-        <v>72.17498268335871</v>
+        <v>72.174982683359</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>53.8850354221092</v>
+        <v>53.88503542210953</v>
       </c>
       <c r="I16">
-        <v>14.73764533786649</v>
+        <v>14.73764533786657</v>
       </c>
       <c r="J16">
-        <v>136.7674918209281</v>
+        <v>136.7674918209283</v>
       </c>
       <c r="K16">
-        <v>13.31881149096626</v>
+        <v>13.31881149096623</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.51625181455702</v>
+        <v>6.516251814557104</v>
       </c>
       <c r="D17">
-        <v>8.500519047062236</v>
+        <v>8.500519047062369</v>
       </c>
       <c r="E17">
-        <v>16.31919311507906</v>
+        <v>16.31919311507914</v>
       </c>
       <c r="F17">
-        <v>67.50086165616359</v>
+        <v>67.5008616561645</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>50.39173594258814</v>
+        <v>50.39173594258884</v>
       </c>
       <c r="I17">
-        <v>14.0242621858752</v>
+        <v>14.02426218587531</v>
       </c>
       <c r="J17">
-        <v>131.9014531306907</v>
+        <v>131.901453130691</v>
       </c>
       <c r="K17">
-        <v>12.72906445799441</v>
+        <v>12.72906445799447</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,31 +1023,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.293174599525758</v>
+        <v>6.293174599525527</v>
       </c>
       <c r="D18">
-        <v>8.134809902367612</v>
+        <v>8.134809902367815</v>
       </c>
       <c r="E18">
-        <v>15.95736155289817</v>
+        <v>15.95736155289821</v>
       </c>
       <c r="F18">
-        <v>65.09914376736494</v>
+        <v>65.09914376736515</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>48.59555355081888</v>
+        <v>48.59555355081906</v>
       </c>
       <c r="I18">
-        <v>13.65203994088398</v>
+        <v>13.65203994088406</v>
       </c>
       <c r="J18">
-        <v>129.2785254148611</v>
+        <v>129.2785254148612</v>
       </c>
       <c r="K18">
-        <v>12.41908962286548</v>
+        <v>12.41908962286554</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.221158317019178</v>
+        <v>6.221158317019288</v>
       </c>
       <c r="D19">
-        <v>8.016963466203055</v>
+        <v>8.016963466203189</v>
       </c>
       <c r="E19">
-        <v>15.83856838561681</v>
+        <v>15.83856838561683</v>
       </c>
       <c r="F19">
         <v>64.32300871447889</v>
@@ -1076,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>48.01489295337686</v>
+        <v>48.01489295337682</v>
       </c>
       <c r="I19">
-        <v>13.53085726430792</v>
+        <v>13.53085726430799</v>
       </c>
       <c r="J19">
-        <v>128.4124454344595</v>
+        <v>128.4124454344598</v>
       </c>
       <c r="K19">
-        <v>12.31784039196474</v>
+        <v>12.31784039196482</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.559442040326537</v>
+        <v>6.559442040326415</v>
       </c>
       <c r="D20">
-        <v>8.571438054591345</v>
+        <v>8.571438054591413</v>
       </c>
       <c r="E20">
-        <v>16.38819669983285</v>
+        <v>16.38819669983283</v>
       </c>
       <c r="F20">
-        <v>67.96540482472153</v>
+        <v>67.96540482472071</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>50.7390517024758</v>
+        <v>50.73905170247524</v>
       </c>
       <c r="I20">
-        <v>14.09579351672055</v>
+        <v>14.09579351672059</v>
       </c>
       <c r="J20">
-        <v>132.3989950736205</v>
+        <v>132.39899507362</v>
       </c>
       <c r="K20">
-        <v>12.78845647068592</v>
+        <v>12.78845647068593</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.263010104476837</v>
+        <v>8.263010104477136</v>
       </c>
       <c r="D21">
-        <v>11.39497123090255</v>
+        <v>11.39497123090262</v>
       </c>
       <c r="E21">
-        <v>18.86713578003728</v>
+        <v>18.86713578003735</v>
       </c>
       <c r="F21">
-        <v>86.14461203840601</v>
+        <v>86.1446120384069</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>64.3140578265929</v>
+        <v>64.3140578265935</v>
       </c>
       <c r="I21">
-        <v>16.80055398090273</v>
+        <v>16.80055398090278</v>
       </c>
       <c r="J21">
-        <v>149.5708979971016</v>
+        <v>149.5708979971022</v>
       </c>
       <c r="K21">
-        <v>14.99164667900082</v>
+        <v>14.99164667900092</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.263010104476837</v>
+        <v>8.263010104477136</v>
       </c>
       <c r="D22">
-        <v>11.39497123090255</v>
+        <v>11.39497123090262</v>
       </c>
       <c r="E22">
-        <v>18.86713578003728</v>
+        <v>18.86713578003735</v>
       </c>
       <c r="F22">
-        <v>86.14461203840601</v>
+        <v>86.1446120384069</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>64.3140578265929</v>
+        <v>64.3140578265935</v>
       </c>
       <c r="I22">
-        <v>16.80055398090273</v>
+        <v>16.80055398090278</v>
       </c>
       <c r="J22">
-        <v>149.5708979971016</v>
+        <v>149.5708979971022</v>
       </c>
       <c r="K22">
-        <v>14.99164667900082</v>
+        <v>14.99164667900092</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,31 +1213,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.263010104476837</v>
+        <v>8.263010104477136</v>
       </c>
       <c r="D23">
-        <v>11.39497123090255</v>
+        <v>11.39497123090262</v>
       </c>
       <c r="E23">
-        <v>18.86713578003728</v>
+        <v>18.86713578003735</v>
       </c>
       <c r="F23">
-        <v>86.14461203840601</v>
+        <v>86.1446120384069</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>64.3140578265929</v>
+        <v>64.3140578265935</v>
       </c>
       <c r="I23">
-        <v>16.80055398090273</v>
+        <v>16.80055398090278</v>
       </c>
       <c r="J23">
-        <v>149.5708979971016</v>
+        <v>149.5708979971022</v>
       </c>
       <c r="K23">
-        <v>14.99164667900082</v>
+        <v>14.99164667900092</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.263010104476837</v>
+        <v>8.263010104477136</v>
       </c>
       <c r="D24">
-        <v>11.39497123090255</v>
+        <v>11.39497123090262</v>
       </c>
       <c r="E24">
-        <v>18.86713578003728</v>
+        <v>18.86713578003735</v>
       </c>
       <c r="F24">
-        <v>86.14461203840601</v>
+        <v>86.1446120384069</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>64.3140578265929</v>
+        <v>64.3140578265935</v>
       </c>
       <c r="I24">
-        <v>16.80055398090273</v>
+        <v>16.80055398090278</v>
       </c>
       <c r="J24">
-        <v>149.5708979971016</v>
+        <v>149.5708979971022</v>
       </c>
       <c r="K24">
-        <v>14.99164667900082</v>
+        <v>14.99164667900092</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.263010104476837</v>
+        <v>8.263010104477136</v>
       </c>
       <c r="D25">
-        <v>11.39497123090255</v>
+        <v>11.39497123090262</v>
       </c>
       <c r="E25">
-        <v>18.86713578003728</v>
+        <v>18.86713578003735</v>
       </c>
       <c r="F25">
-        <v>86.14461203840601</v>
+        <v>86.1446120384069</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>64.3140578265929</v>
+        <v>64.3140578265935</v>
       </c>
       <c r="I25">
-        <v>16.80055398090273</v>
+        <v>16.80055398090278</v>
       </c>
       <c r="J25">
-        <v>149.5708979971016</v>
+        <v>149.5708979971022</v>
       </c>
       <c r="K25">
-        <v>14.99164667900082</v>
+        <v>14.99164667900092</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_line/loading_percent.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.370192073743946</v>
+        <v>4.37019207374404</v>
       </c>
       <c r="D2">
-        <v>5.034037115125055</v>
+        <v>5.034037115125054</v>
       </c>
       <c r="E2">
-        <v>12.57156575448111</v>
+        <v>12.57156575448114</v>
       </c>
       <c r="F2">
-        <v>44.36757484780722</v>
+        <v>44.36757484780781</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>33.02165009170048</v>
+        <v>33.02165009170091</v>
       </c>
       <c r="I2">
-        <v>10.21144254713733</v>
+        <v>10.21144254713736</v>
       </c>
       <c r="J2">
-        <v>102.5130698599408</v>
+        <v>102.5130698599411</v>
       </c>
       <c r="K2">
-        <v>9.482873424483179</v>
+        <v>9.48287342448322</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.886033084709991</v>
+        <v>3.886033084710184</v>
       </c>
       <c r="D3">
-        <v>4.274086971900188</v>
+        <v>4.274086971900122</v>
       </c>
       <c r="E3">
-        <v>11.64474222015613</v>
+        <v>11.64474222015614</v>
       </c>
       <c r="F3">
-        <v>39.23894625056244</v>
+        <v>39.23894625056263</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>29.13002142181411</v>
+        <v>29.1300214218142</v>
       </c>
       <c r="I3">
-        <v>9.264213942923616</v>
+        <v>9.264213942923627</v>
       </c>
       <c r="J3">
-        <v>94.40105854924199</v>
+        <v>94.4010585492419</v>
       </c>
       <c r="K3">
-        <v>8.652950117955275</v>
+        <v>8.652950117955305</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.601772792667906</v>
+        <v>3.60177279266789</v>
       </c>
       <c r="D4">
-        <v>3.83372242716012</v>
+        <v>3.833722427160117</v>
       </c>
       <c r="E4">
         <v>11.08045705633396</v>
       </c>
       <c r="F4">
-        <v>36.28479384370459</v>
+        <v>36.28479384370452</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>26.87388707023654</v>
+        <v>26.87388707023648</v>
       </c>
       <c r="I4">
-        <v>8.68950223796941</v>
+        <v>8.689502237969428</v>
       </c>
       <c r="J4">
-        <v>89.33240224890896</v>
+        <v>89.33240224890893</v>
       </c>
       <c r="K4">
-        <v>8.196633426627818</v>
+        <v>8.196633426627805</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.487959186639082</v>
+        <v>3.487959186638988</v>
       </c>
       <c r="D5">
-        <v>3.65881862445478</v>
+        <v>3.658818624454779</v>
       </c>
       <c r="E5">
-        <v>10.85053604203087</v>
+        <v>10.85053604203084</v>
       </c>
       <c r="F5">
-        <v>35.11907908039941</v>
+        <v>35.11907908039937</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>25.97967804130777</v>
+        <v>25.97967804130776</v>
       </c>
       <c r="I5">
-        <v>8.455286963719931</v>
+        <v>8.455286963719958</v>
       </c>
       <c r="J5">
-        <v>87.23548627668673</v>
+        <v>87.23548627668676</v>
       </c>
       <c r="K5">
-        <v>8.050724792250339</v>
+        <v>8.050724792250316</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.469153298790809</v>
+        <v>3.469153298790898</v>
       </c>
       <c r="D6">
-        <v>3.630002471322982</v>
+        <v>3.630002471323047</v>
       </c>
       <c r="E6">
-        <v>10.81233361618058</v>
+        <v>10.81233361618062</v>
       </c>
       <c r="F6">
-        <v>34.92757801773014</v>
+        <v>34.9275780177305</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>25.83253171258281</v>
+        <v>25.8325317125831</v>
       </c>
       <c r="I6">
-        <v>8.416353594097275</v>
+        <v>8.416353594097355</v>
       </c>
       <c r="J6">
-        <v>86.88517676228089</v>
+        <v>86.88517676228103</v>
       </c>
       <c r="K6">
-        <v>8.026674759644125</v>
+        <v>8.026674759644145</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.600231039435237</v>
+        <v>3.600231039435026</v>
       </c>
       <c r="D7">
-        <v>3.831347445909398</v>
+        <v>3.831347445909265</v>
       </c>
       <c r="E7">
-        <v>11.07735736676056</v>
+        <v>11.07735736676054</v>
       </c>
       <c r="F7">
-        <v>36.26892946327832</v>
+        <v>36.26892946327811</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>26.86173419002198</v>
+        <v>26.86173419002181</v>
       </c>
       <c r="I7">
-        <v>8.686345510933947</v>
+        <v>8.686345510933927</v>
       </c>
       <c r="J7">
-        <v>89.30425996045498</v>
+        <v>89.30425996045496</v>
       </c>
       <c r="K7">
-        <v>8.194653243654477</v>
+        <v>8.194653243654464</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.199660880133896</v>
+        <v>4.199660880133989</v>
       </c>
       <c r="D8">
-        <v>4.765086059939646</v>
+        <v>4.76508605993978</v>
       </c>
       <c r="E8">
-        <v>12.25013186216116</v>
+        <v>12.25013186216115</v>
       </c>
       <c r="F8">
-        <v>42.55065852609698</v>
+        <v>42.55065852609653</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>31.6459455212682</v>
+        <v>31.64594552126787</v>
       </c>
       <c r="I8">
-        <v>9.882154681542062</v>
+        <v>9.882154681542014</v>
       </c>
       <c r="J8">
-        <v>99.72766832934931</v>
+        <v>99.72766832934924</v>
       </c>
       <c r="K8">
-        <v>9.195381354908037</v>
+        <v>9.195381354908019</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.571691209729769</v>
+        <v>5.571691209729551</v>
       </c>
       <c r="D9">
-        <v>6.959384396499205</v>
+        <v>6.95938439649907</v>
       </c>
       <c r="E9">
-        <v>14.72088074987832</v>
+        <v>14.72088074987837</v>
       </c>
       <c r="F9">
-        <v>57.31100614482396</v>
+        <v>57.31100614482412</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>42.7630265491995</v>
+        <v>42.76302654919958</v>
       </c>
       <c r="I9">
-        <v>12.41367977386016</v>
+        <v>12.41367977386023</v>
       </c>
       <c r="J9">
-        <v>120.1550455990716</v>
+        <v>120.1550455990715</v>
       </c>
       <c r="K9">
-        <v>11.3768327751621</v>
+        <v>11.37683277516214</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.006144276292233</v>
+        <v>7.006144276292186</v>
       </c>
       <c r="D10">
-        <v>9.306984467927121</v>
+        <v>9.306984467926988</v>
       </c>
       <c r="E10">
-        <v>17.08271339779321</v>
+        <v>17.0827133977932</v>
       </c>
       <c r="F10">
-        <v>72.76036390461036</v>
+        <v>72.7603639046098</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>54.3223489918524</v>
+        <v>54.32234899185197</v>
       </c>
       <c r="I10">
-        <v>14.82604611169084</v>
+        <v>14.82604611169078</v>
       </c>
       <c r="J10">
-        <v>137.3554141257542</v>
+        <v>137.355414125754</v>
       </c>
       <c r="K10">
-        <v>13.39149202012349</v>
+        <v>13.39149202012348</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.089091180385147</v>
+        <v>8.089091180385175</v>
       </c>
       <c r="D11">
-        <v>11.10451081585536</v>
+        <v>11.10451081585549</v>
       </c>
       <c r="E11">
-        <v>18.63389425341638</v>
+        <v>18.63389425341643</v>
       </c>
       <c r="F11">
-        <v>84.30250144098453</v>
+        <v>84.30250144098521</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>62.93943965348079</v>
+        <v>62.93943965348128</v>
       </c>
       <c r="I11">
-        <v>16.5334038465739</v>
+        <v>16.53340384657396</v>
       </c>
       <c r="J11">
-        <v>148.0246787815978</v>
+        <v>148.0246787815984</v>
       </c>
       <c r="K11">
-        <v>14.77775946511375</v>
+        <v>14.77775946511378</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.853944716319766</v>
+        <v>8.853944716319917</v>
       </c>
       <c r="D12">
-        <v>12.38547057381892</v>
+        <v>12.38547057381899</v>
       </c>
       <c r="E12">
-        <v>19.62998887671015</v>
+        <v>19.62998887671019</v>
       </c>
       <c r="F12">
-        <v>92.37940564382244</v>
+        <v>92.37940564382279</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>68.96596817508329</v>
+        <v>68.96596817508355</v>
       </c>
       <c r="I12">
-        <v>17.6963189291724</v>
+        <v>17.69631892917245</v>
       </c>
       <c r="J12">
-        <v>154.4966579150374</v>
+        <v>154.4966579150377</v>
       </c>
       <c r="K12">
-        <v>15.70284616229957</v>
+        <v>15.70284616229961</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,31 +833,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.63537972793328</v>
+        <v>8.635379727933005</v>
       </c>
       <c r="D13">
-        <v>12.01847685865454</v>
+        <v>12.01847685865448</v>
       </c>
       <c r="E13">
-        <v>19.35302158583595</v>
+        <v>19.35302158583593</v>
       </c>
       <c r="F13">
-        <v>90.07775693569172</v>
+        <v>90.0777569356911</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>67.24873720115959</v>
+        <v>67.24873720115916</v>
       </c>
       <c r="I13">
-        <v>17.36702703695551</v>
+        <v>17.36702703695541</v>
       </c>
       <c r="J13">
-        <v>152.73309319068</v>
+        <v>152.7330931906799</v>
       </c>
       <c r="K13">
-        <v>15.44247014866678</v>
+        <v>15.44247014866671</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,31 +871,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.136484731010297</v>
+        <v>8.136484731010265</v>
       </c>
       <c r="D14">
         <v>11.18361458514083</v>
       </c>
       <c r="E14">
-        <v>18.6978620851837</v>
+        <v>18.69786208518378</v>
       </c>
       <c r="F14">
-        <v>84.80480456048934</v>
+        <v>84.80480456048944</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>63.31427935581675</v>
+        <v>63.31427935581688</v>
       </c>
       <c r="I14">
-        <v>16.60637478314331</v>
+        <v>16.6063747831434</v>
       </c>
       <c r="J14">
-        <v>148.4504585539057</v>
+        <v>148.4504585539061</v>
       </c>
       <c r="K14">
-        <v>14.83626320902056</v>
+        <v>14.83626320902062</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,31 +909,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.903821063025681</v>
+        <v>7.903821063025723</v>
       </c>
       <c r="D15">
-        <v>10.79562454795192</v>
+        <v>10.79562454795172</v>
       </c>
       <c r="E15">
-        <v>18.38083644102163</v>
+        <v>18.38083644102157</v>
       </c>
       <c r="F15">
-        <v>82.33660220761493</v>
+        <v>82.33660220761455</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>61.47230683659052</v>
+        <v>61.47230683659019</v>
       </c>
       <c r="I15">
-        <v>16.24686560703111</v>
+        <v>16.246865607031</v>
       </c>
       <c r="J15">
-        <v>146.3280645339045</v>
+        <v>146.328064533904</v>
       </c>
       <c r="K15">
-        <v>14.54743880513455</v>
+        <v>14.54743880513451</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.951517252529595</v>
+        <v>6.951517252529794</v>
       </c>
       <c r="D16">
-        <v>9.21683933227456</v>
+        <v>9.216839332274358</v>
       </c>
       <c r="E16">
-        <v>16.99960902492643</v>
+        <v>16.99960902492637</v>
       </c>
       <c r="F16">
-        <v>72.174982683359</v>
+        <v>72.17498268335871</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>53.88503542210953</v>
+        <v>53.8850354221092</v>
       </c>
       <c r="I16">
-        <v>14.73764533786657</v>
+        <v>14.73764533786649</v>
       </c>
       <c r="J16">
-        <v>136.7674918209283</v>
+        <v>136.7674918209281</v>
       </c>
       <c r="K16">
-        <v>13.31881149096623</v>
+        <v>13.31881149096626</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.516251814557104</v>
+        <v>6.51625181455702</v>
       </c>
       <c r="D17">
-        <v>8.500519047062369</v>
+        <v>8.500519047062236</v>
       </c>
       <c r="E17">
-        <v>16.31919311507914</v>
+        <v>16.31919311507906</v>
       </c>
       <c r="F17">
-        <v>67.5008616561645</v>
+        <v>67.50086165616359</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>50.39173594258884</v>
+        <v>50.39173594258814</v>
       </c>
       <c r="I17">
-        <v>14.02426218587531</v>
+        <v>14.0242621858752</v>
       </c>
       <c r="J17">
-        <v>131.901453130691</v>
+        <v>131.9014531306907</v>
       </c>
       <c r="K17">
-        <v>12.72906445799447</v>
+        <v>12.72906445799441</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,31 +1023,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.293174599525527</v>
+        <v>6.293174599525758</v>
       </c>
       <c r="D18">
-        <v>8.134809902367815</v>
+        <v>8.134809902367612</v>
       </c>
       <c r="E18">
-        <v>15.95736155289821</v>
+        <v>15.95736155289817</v>
       </c>
       <c r="F18">
-        <v>65.09914376736515</v>
+        <v>65.09914376736494</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>48.59555355081906</v>
+        <v>48.59555355081888</v>
       </c>
       <c r="I18">
-        <v>13.65203994088406</v>
+        <v>13.65203994088398</v>
       </c>
       <c r="J18">
-        <v>129.2785254148612</v>
+        <v>129.2785254148611</v>
       </c>
       <c r="K18">
-        <v>12.41908962286554</v>
+        <v>12.41908962286548</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.221158317019288</v>
+        <v>6.221158317019178</v>
       </c>
       <c r="D19">
-        <v>8.016963466203189</v>
+        <v>8.016963466203055</v>
       </c>
       <c r="E19">
-        <v>15.83856838561683</v>
+        <v>15.83856838561681</v>
       </c>
       <c r="F19">
         <v>64.32300871447889</v>
@@ -1076,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>48.01489295337682</v>
+        <v>48.01489295337686</v>
       </c>
       <c r="I19">
-        <v>13.53085726430799</v>
+        <v>13.53085726430792</v>
       </c>
       <c r="J19">
-        <v>128.4124454344598</v>
+        <v>128.4124454344595</v>
       </c>
       <c r="K19">
-        <v>12.31784039196482</v>
+        <v>12.31784039196474</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.559442040326415</v>
+        <v>6.559442040326537</v>
       </c>
       <c r="D20">
-        <v>8.571438054591413</v>
+        <v>8.571438054591345</v>
       </c>
       <c r="E20">
-        <v>16.38819669983283</v>
+        <v>16.38819669983285</v>
       </c>
       <c r="F20">
-        <v>67.96540482472071</v>
+        <v>67.96540482472153</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>50.73905170247524</v>
+        <v>50.7390517024758</v>
       </c>
       <c r="I20">
-        <v>14.09579351672059</v>
+        <v>14.09579351672055</v>
       </c>
       <c r="J20">
-        <v>132.39899507362</v>
+        <v>132.3989950736205</v>
       </c>
       <c r="K20">
-        <v>12.78845647068593</v>
+        <v>12.78845647068592</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.263010104477136</v>
+        <v>8.263010104476837</v>
       </c>
       <c r="D21">
-        <v>11.39497123090262</v>
+        <v>11.39497123090255</v>
       </c>
       <c r="E21">
-        <v>18.86713578003735</v>
+        <v>18.86713578003728</v>
       </c>
       <c r="F21">
-        <v>86.1446120384069</v>
+        <v>86.14461203840601</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>64.3140578265935</v>
+        <v>64.3140578265929</v>
       </c>
       <c r="I21">
-        <v>16.80055398090278</v>
+        <v>16.80055398090273</v>
       </c>
       <c r="J21">
-        <v>149.5708979971022</v>
+        <v>149.5708979971016</v>
       </c>
       <c r="K21">
-        <v>14.99164667900092</v>
+        <v>14.99164667900082</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.263010104477136</v>
+        <v>8.263010104476837</v>
       </c>
       <c r="D22">
-        <v>11.39497123090262</v>
+        <v>11.39497123090255</v>
       </c>
       <c r="E22">
-        <v>18.86713578003735</v>
+        <v>18.86713578003728</v>
       </c>
       <c r="F22">
-        <v>86.1446120384069</v>
+        <v>86.14461203840601</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>64.3140578265935</v>
+        <v>64.3140578265929</v>
       </c>
       <c r="I22">
-        <v>16.80055398090278</v>
+        <v>16.80055398090273</v>
       </c>
       <c r="J22">
-        <v>149.5708979971022</v>
+        <v>149.5708979971016</v>
       </c>
       <c r="K22">
-        <v>14.99164667900092</v>
+        <v>14.99164667900082</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,31 +1213,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.263010104477136</v>
+        <v>8.263010104476837</v>
       </c>
       <c r="D23">
-        <v>11.39497123090262</v>
+        <v>11.39497123090255</v>
       </c>
       <c r="E23">
-        <v>18.86713578003735</v>
+        <v>18.86713578003728</v>
       </c>
       <c r="F23">
-        <v>86.1446120384069</v>
+        <v>86.14461203840601</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>64.3140578265935</v>
+        <v>64.3140578265929</v>
       </c>
       <c r="I23">
-        <v>16.80055398090278</v>
+        <v>16.80055398090273</v>
       </c>
       <c r="J23">
-        <v>149.5708979971022</v>
+        <v>149.5708979971016</v>
       </c>
       <c r="K23">
-        <v>14.99164667900092</v>
+        <v>14.99164667900082</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.263010104477136</v>
+        <v>8.263010104476837</v>
       </c>
       <c r="D24">
-        <v>11.39497123090262</v>
+        <v>11.39497123090255</v>
       </c>
       <c r="E24">
-        <v>18.86713578003735</v>
+        <v>18.86713578003728</v>
       </c>
       <c r="F24">
-        <v>86.1446120384069</v>
+        <v>86.14461203840601</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>64.3140578265935</v>
+        <v>64.3140578265929</v>
       </c>
       <c r="I24">
-        <v>16.80055398090278</v>
+        <v>16.80055398090273</v>
       </c>
       <c r="J24">
-        <v>149.5708979971022</v>
+        <v>149.5708979971016</v>
       </c>
       <c r="K24">
-        <v>14.99164667900092</v>
+        <v>14.99164667900082</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.263010104477136</v>
+        <v>8.263010104476837</v>
       </c>
       <c r="D25">
-        <v>11.39497123090262</v>
+        <v>11.39497123090255</v>
       </c>
       <c r="E25">
-        <v>18.86713578003735</v>
+        <v>18.86713578003728</v>
       </c>
       <c r="F25">
-        <v>86.1446120384069</v>
+        <v>86.14461203840601</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>64.3140578265935</v>
+        <v>64.3140578265929</v>
       </c>
       <c r="I25">
-        <v>16.80055398090278</v>
+        <v>16.80055398090273</v>
       </c>
       <c r="J25">
-        <v>149.5708979971022</v>
+        <v>149.5708979971016</v>
       </c>
       <c r="K25">
-        <v>14.99164667900092</v>
+        <v>14.99164667900082</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.37019207374404</v>
+        <v>4.23046083874216</v>
       </c>
       <c r="D2">
-        <v>5.034037115125054</v>
+        <v>4.818486768770875</v>
       </c>
       <c r="E2">
-        <v>12.57156575448114</v>
+        <v>12.52239072852941</v>
       </c>
       <c r="F2">
-        <v>44.36757484780781</v>
+        <v>43.84333171344493</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.884624129845251</v>
       </c>
       <c r="H2">
-        <v>33.02165009170091</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>10.21144254713736</v>
+        <v>32.59708303044723</v>
       </c>
       <c r="J2">
-        <v>102.5130698599411</v>
+        <v>10.14791917916179</v>
       </c>
       <c r="K2">
-        <v>9.48287342448322</v>
+        <v>102.2022385923777</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>9.441086280929552</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.886033084710184</v>
+        <v>3.751345673661587</v>
       </c>
       <c r="D3">
-        <v>4.274086971900122</v>
+        <v>4.062304481937775</v>
       </c>
       <c r="E3">
-        <v>11.64474222015614</v>
+        <v>11.60006577744908</v>
       </c>
       <c r="F3">
-        <v>39.23894625056263</v>
+        <v>38.82358443127487</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.923732318384481</v>
       </c>
       <c r="H3">
-        <v>29.1300214218142</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>9.264213942923627</v>
+        <v>28.78056540604929</v>
       </c>
       <c r="J3">
-        <v>94.4010585492419</v>
+        <v>9.208093893187714</v>
       </c>
       <c r="K3">
-        <v>8.652950117955305</v>
+        <v>94.1314702916459</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>8.616952199634261</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.60177279266789</v>
+        <v>3.470045934224038</v>
       </c>
       <c r="D4">
-        <v>3.833722427160117</v>
+        <v>3.623605073668731</v>
       </c>
       <c r="E4">
-        <v>11.08045705633396</v>
+        <v>11.03800933184094</v>
       </c>
       <c r="F4">
-        <v>36.28479384370452</v>
+        <v>35.9398609351502</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.946649235942873</v>
       </c>
       <c r="H4">
-        <v>26.87388707023648</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>8.689502237969428</v>
+        <v>26.57269549603525</v>
       </c>
       <c r="J4">
-        <v>89.33240224890893</v>
+        <v>8.637342760325764</v>
       </c>
       <c r="K4">
-        <v>8.196633426627805</v>
+        <v>89.08561578961137</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>8.183725543324469</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.487959186638988</v>
+        <v>3.357435706415074</v>
       </c>
       <c r="D5">
-        <v>3.658818624454779</v>
+        <v>3.449269402387266</v>
       </c>
       <c r="E5">
-        <v>10.85053604203084</v>
+        <v>10.80889932898904</v>
       </c>
       <c r="F5">
-        <v>35.11907908039937</v>
+        <v>34.80425556780132</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.955808123936181</v>
       </c>
       <c r="H5">
-        <v>25.97967804130776</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>8.455286963719958</v>
+        <v>25.69908629311776</v>
       </c>
       <c r="J5">
-        <v>87.23548627668676</v>
+        <v>8.404646775393605</v>
       </c>
       <c r="K5">
-        <v>8.050724792250316</v>
+        <v>86.99761828434552</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>8.03943918683542</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.469153298790898</v>
+        <v>3.338830121106719</v>
       </c>
       <c r="D6">
-        <v>3.630002471323047</v>
+        <v>3.420542035511418</v>
       </c>
       <c r="E6">
-        <v>10.81233361618062</v>
+        <v>10.77082647619359</v>
       </c>
       <c r="F6">
-        <v>34.9275780177305</v>
+        <v>34.61785122857221</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.957320336177907</v>
       </c>
       <c r="H6">
-        <v>25.8325317125831</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>8.416353594097355</v>
+        <v>25.55542635238247</v>
       </c>
       <c r="J6">
-        <v>86.88517676228103</v>
+        <v>8.365961091403172</v>
       </c>
       <c r="K6">
-        <v>8.026674759644145</v>
+        <v>86.64877280242894</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>8.015656543062839</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.600231039435026</v>
+        <v>3.468520391077409</v>
       </c>
       <c r="D7">
-        <v>3.831347445909265</v>
+        <v>3.621238148728925</v>
       </c>
       <c r="E7">
-        <v>11.07735736676054</v>
+        <v>11.03492093667981</v>
       </c>
       <c r="F7">
-        <v>36.26892946327811</v>
+        <v>35.92439635680217</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.946773379427342</v>
       </c>
       <c r="H7">
-        <v>26.86173419002181</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>8.686345510933927</v>
+        <v>26.56081621853299</v>
       </c>
       <c r="J7">
-        <v>89.30425996045496</v>
+        <v>8.634206853116334</v>
       </c>
       <c r="K7">
-        <v>8.194653243654464</v>
+        <v>89.05759502329035</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>8.181767387950707</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.199660880133989</v>
+        <v>4.061721127146047</v>
       </c>
       <c r="D8">
-        <v>4.76508605993978</v>
+        <v>4.551010145576321</v>
       </c>
       <c r="E8">
-        <v>12.25013186216115</v>
+        <v>12.20264735017654</v>
       </c>
       <c r="F8">
-        <v>42.55065852609653</v>
+        <v>42.06358322715739</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.898404433566122</v>
       </c>
       <c r="H8">
-        <v>31.64594552126787</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>9.882154681542014</v>
+        <v>31.24710905598044</v>
       </c>
       <c r="J8">
-        <v>99.72766832934924</v>
+        <v>9.821345663752949</v>
       </c>
       <c r="K8">
-        <v>9.195381354908019</v>
+        <v>99.43177929020834</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>9.155716132032122</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.571691209729551</v>
+        <v>5.417402309832925</v>
       </c>
       <c r="D9">
-        <v>6.95938439649907</v>
+        <v>6.727198957854526</v>
       </c>
       <c r="E9">
-        <v>14.72088074987837</v>
+        <v>14.66010314301689</v>
       </c>
       <c r="F9">
-        <v>57.31100614482412</v>
+        <v>56.53137351659471</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.787712350726181</v>
       </c>
       <c r="H9">
-        <v>42.76302654919958</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>12.41367977386023</v>
+        <v>42.15830206479539</v>
       </c>
       <c r="J9">
-        <v>120.1550455990715</v>
+        <v>12.32620574484346</v>
       </c>
       <c r="K9">
-        <v>11.37683277516214</v>
+        <v>119.7182054983696</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>11.31635443110247</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.006144276292186</v>
+        <v>6.820562212882053</v>
       </c>
       <c r="D10">
-        <v>9.306984467926988</v>
+        <v>9.026660637582205</v>
       </c>
       <c r="E10">
-        <v>17.0827133977932</v>
+        <v>16.98038717269095</v>
       </c>
       <c r="F10">
-        <v>72.7603639046098</v>
+        <v>71.56284377297473</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.673610140498088</v>
       </c>
       <c r="H10">
-        <v>54.32234899185197</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>14.82604611169078</v>
+        <v>53.41299608439011</v>
       </c>
       <c r="J10">
-        <v>137.355414125754</v>
+        <v>14.68663092477126</v>
       </c>
       <c r="K10">
-        <v>13.39149202012348</v>
+        <v>136.6616419583583</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>13.29060415776358</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.089091180385175</v>
+        <v>7.843564767200056</v>
       </c>
       <c r="D11">
-        <v>11.10451081585549</v>
+        <v>10.72422825080984</v>
       </c>
       <c r="E11">
-        <v>18.63389425341643</v>
+        <v>18.4573216345262</v>
       </c>
       <c r="F11">
-        <v>84.30250144098521</v>
+        <v>82.42203307898831</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.590847739507497</v>
       </c>
       <c r="H11">
-        <v>62.93943965348128</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>16.53340384657396</v>
+        <v>61.52393471518641</v>
       </c>
       <c r="J11">
-        <v>148.0246787815984</v>
+        <v>16.30037746708958</v>
       </c>
       <c r="K11">
-        <v>14.77775946511378</v>
+        <v>146.8844798034199</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>14.60418327723636</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.853944716319917</v>
+        <v>8.488071854322445</v>
       </c>
       <c r="D12">
-        <v>12.38547057381899</v>
+        <v>11.80178273278938</v>
       </c>
       <c r="E12">
-        <v>19.62998887671019</v>
+        <v>19.31033628400736</v>
       </c>
       <c r="F12">
-        <v>92.37940564382279</v>
+        <v>89.20899749742954</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.538878736186579</v>
       </c>
       <c r="H12">
-        <v>68.96596817508355</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>17.69631892917245</v>
+        <v>66.58970240853132</v>
       </c>
       <c r="J12">
-        <v>154.4966579150377</v>
+        <v>17.28253297040675</v>
       </c>
       <c r="K12">
-        <v>15.70284616229961</v>
+        <v>152.5083855757861</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>15.38900510564287</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.635379727933005</v>
+        <v>8.318209169877603</v>
       </c>
       <c r="D13">
-        <v>12.01847685865448</v>
+        <v>11.51719371079986</v>
       </c>
       <c r="E13">
-        <v>19.35302158583593</v>
+        <v>19.09085925262026</v>
       </c>
       <c r="F13">
-        <v>90.0777569356911</v>
+        <v>87.42444212681642</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.552563356124969</v>
       </c>
       <c r="H13">
-        <v>67.24873720115916</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>17.36702703695541</v>
+        <v>65.25786522713494</v>
       </c>
       <c r="J13">
-        <v>152.7330931906799</v>
+        <v>17.02588441487584</v>
       </c>
       <c r="K13">
-        <v>15.44247014866671</v>
+        <v>151.0846891621994</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>15.18499350423857</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.136484731010265</v>
+        <v>7.88652757431561</v>
       </c>
       <c r="D14">
-        <v>11.18361458514083</v>
+        <v>10.79586711183382</v>
       </c>
       <c r="E14">
-        <v>18.69786208518378</v>
+        <v>18.51593593299804</v>
       </c>
       <c r="F14">
-        <v>84.80480456048944</v>
+        <v>82.87578788145704</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.587379543230507</v>
       </c>
       <c r="H14">
-        <v>63.31427935581688</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>16.6063747831434</v>
+        <v>61.86267312065235</v>
       </c>
       <c r="J14">
-        <v>148.4504585539061</v>
+        <v>16.36658850990944</v>
       </c>
       <c r="K14">
-        <v>14.83626320902062</v>
+        <v>147.2783446569834</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>14.65744037281204</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.903821063025723</v>
+        <v>7.67350498800263</v>
       </c>
       <c r="D15">
-        <v>10.79562454795172</v>
+        <v>10.44092907143077</v>
       </c>
       <c r="E15">
-        <v>18.38083644102157</v>
+        <v>18.22273944377865</v>
       </c>
       <c r="F15">
-        <v>82.33660220761455</v>
+        <v>80.62407608850748</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.604581670240778</v>
       </c>
       <c r="H15">
-        <v>61.47230683659019</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>16.246865607031</v>
+        <v>60.18161101264155</v>
       </c>
       <c r="J15">
-        <v>146.328064533904</v>
+        <v>16.03716279414028</v>
       </c>
       <c r="K15">
-        <v>14.54743880513451</v>
+        <v>145.2982086732337</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>14.39196655884534</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.951517252529794</v>
+        <v>6.767718486283618</v>
       </c>
       <c r="D16">
-        <v>9.216839332274358</v>
+        <v>8.939416976213769</v>
       </c>
       <c r="E16">
-        <v>16.99960902492637</v>
+        <v>16.89957674305386</v>
       </c>
       <c r="F16">
-        <v>72.17498268335871</v>
+        <v>70.99919033468028</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.677895031682271</v>
       </c>
       <c r="H16">
-        <v>53.8850354221092</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>14.73764533786649</v>
+        <v>52.99168571408872</v>
       </c>
       <c r="J16">
-        <v>136.7674918209281</v>
+        <v>14.60111342781387</v>
       </c>
       <c r="K16">
-        <v>13.31881149096626</v>
+        <v>136.0876949973329</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>13.22016428244568</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.51625181455702</v>
+        <v>6.344466253692967</v>
       </c>
       <c r="D17">
-        <v>8.500519047062236</v>
+        <v>8.242330624721099</v>
       </c>
       <c r="E17">
-        <v>16.31919311507906</v>
+        <v>16.23483243950499</v>
       </c>
       <c r="F17">
-        <v>67.50086165616359</v>
+        <v>66.47613582364235</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.712250393901103</v>
       </c>
       <c r="H17">
-        <v>50.39173594258814</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>14.0242621858752</v>
+        <v>49.60928561164791</v>
       </c>
       <c r="J17">
-        <v>131.9014531306907</v>
+        <v>13.90739364525408</v>
       </c>
       <c r="K17">
-        <v>12.72906445799441</v>
+        <v>131.317653504604</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>12.64570404367623</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.293174599525758</v>
+        <v>6.126358577726255</v>
       </c>
       <c r="D18">
-        <v>8.134809902367612</v>
+        <v>7.884343512324335</v>
       </c>
       <c r="E18">
-        <v>15.95736155289817</v>
+        <v>15.87960858486661</v>
       </c>
       <c r="F18">
-        <v>65.09914376736494</v>
+        <v>64.14010764495141</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.729978657089198</v>
       </c>
       <c r="H18">
-        <v>48.59555355081888</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>13.65203994088398</v>
+        <v>47.86106656238173</v>
       </c>
       <c r="J18">
-        <v>129.2785254148611</v>
+        <v>13.54343786689843</v>
       </c>
       <c r="K18">
-        <v>12.41908962286548</v>
+        <v>128.7355355363974</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>12.34215974300643</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.221158317019178</v>
+        <v>6.055812812559312</v>
       </c>
       <c r="D19">
-        <v>8.016963466203055</v>
+        <v>7.768743642740421</v>
       </c>
       <c r="E19">
-        <v>15.83856838561681</v>
+        <v>15.76278560711313</v>
       </c>
       <c r="F19">
-        <v>64.32300871447889</v>
+        <v>63.38389045278263</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.73571626552573</v>
       </c>
       <c r="H19">
-        <v>48.01489295337686</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>13.53085726430792</v>
+        <v>47.29490898411485</v>
       </c>
       <c r="J19">
-        <v>128.4124454344595</v>
+        <v>13.4247162369344</v>
       </c>
       <c r="K19">
-        <v>12.31784039196474</v>
+        <v>127.8816707277525</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>12.24282555055698</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.559442040326537</v>
+        <v>6.386613490058665</v>
       </c>
       <c r="D20">
-        <v>8.571438054591345</v>
+        <v>8.311607428421757</v>
       </c>
       <c r="E20">
-        <v>16.38819669983285</v>
+        <v>16.30245898973367</v>
       </c>
       <c r="F20">
-        <v>67.96540482472153</v>
+        <v>66.92717196071368</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.708826481019407</v>
       </c>
       <c r="H20">
-        <v>50.7390517024758</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>14.09579351672055</v>
+        <v>49.94671668585116</v>
       </c>
       <c r="J20">
-        <v>132.3989950736205</v>
+        <v>13.97720012039888</v>
       </c>
       <c r="K20">
-        <v>12.78845647068592</v>
+        <v>131.8067187676655</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>12.7037546202516</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.263010104476837</v>
+        <v>7.999917789839116</v>
       </c>
       <c r="D21">
-        <v>11.39497123090255</v>
+        <v>10.98507224911495</v>
       </c>
       <c r="E21">
-        <v>18.86713578003728</v>
+        <v>18.66940001010217</v>
       </c>
       <c r="F21">
-        <v>86.14461203840601</v>
+        <v>84.07245363003692</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.578228829731984</v>
       </c>
       <c r="H21">
-        <v>64.3140578265929</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>16.80055398090273</v>
+        <v>62.75596474548307</v>
       </c>
       <c r="J21">
-        <v>149.5708979971016</v>
+        <v>16.54080187898911</v>
       </c>
       <c r="K21">
-        <v>14.99164667900082</v>
+        <v>148.3046623185697</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>14.79732838092102</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.263010104476837</v>
+        <v>7.999917789839116</v>
       </c>
       <c r="D22">
-        <v>11.39497123090255</v>
+        <v>10.98507224911495</v>
       </c>
       <c r="E22">
-        <v>18.86713578003728</v>
+        <v>18.66940001010217</v>
       </c>
       <c r="F22">
-        <v>86.14461203840601</v>
+        <v>84.07245363003692</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.578228829731984</v>
       </c>
       <c r="H22">
-        <v>64.3140578265929</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>16.80055398090273</v>
+        <v>62.75596474548307</v>
       </c>
       <c r="J22">
-        <v>149.5708979971016</v>
+        <v>16.54080187898911</v>
       </c>
       <c r="K22">
-        <v>14.99164667900082</v>
+        <v>148.3046623185697</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>14.79732838092102</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.263010104476837</v>
+        <v>7.999917789839116</v>
       </c>
       <c r="D23">
-        <v>11.39497123090255</v>
+        <v>10.98507224911495</v>
       </c>
       <c r="E23">
-        <v>18.86713578003728</v>
+        <v>18.66940001010217</v>
       </c>
       <c r="F23">
-        <v>86.14461203840601</v>
+        <v>84.07245363003692</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.578228829731984</v>
       </c>
       <c r="H23">
-        <v>64.3140578265929</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>16.80055398090273</v>
+        <v>62.75596474548307</v>
       </c>
       <c r="J23">
-        <v>149.5708979971016</v>
+        <v>16.54080187898911</v>
       </c>
       <c r="K23">
-        <v>14.99164667900082</v>
+        <v>148.3046623185697</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>14.79732838092102</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.263010104476837</v>
+        <v>7.999917789839116</v>
       </c>
       <c r="D24">
-        <v>11.39497123090255</v>
+        <v>10.98507224911495</v>
       </c>
       <c r="E24">
-        <v>18.86713578003728</v>
+        <v>18.66940001010217</v>
       </c>
       <c r="F24">
-        <v>86.14461203840601</v>
+        <v>84.07245363003692</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.578228829731984</v>
       </c>
       <c r="H24">
-        <v>64.3140578265929</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>16.80055398090273</v>
+        <v>62.75596474548307</v>
       </c>
       <c r="J24">
-        <v>149.5708979971016</v>
+        <v>16.54080187898911</v>
       </c>
       <c r="K24">
-        <v>14.99164667900082</v>
+        <v>148.3046623185697</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>14.79732838092102</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.263010104476837</v>
+        <v>7.999917789839116</v>
       </c>
       <c r="D25">
-        <v>11.39497123090255</v>
+        <v>10.98507224911495</v>
       </c>
       <c r="E25">
-        <v>18.86713578003728</v>
+        <v>18.66940001010217</v>
       </c>
       <c r="F25">
-        <v>86.14461203840601</v>
+        <v>84.07245363003692</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.578228829731984</v>
       </c>
       <c r="H25">
-        <v>64.3140578265929</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>16.80055398090273</v>
+        <v>62.75596474548307</v>
       </c>
       <c r="J25">
-        <v>149.5708979971016</v>
+        <v>16.54080187898911</v>
       </c>
       <c r="K25">
-        <v>14.99164667900082</v>
+        <v>148.3046623185697</v>
       </c>
       <c r="L25">
+        <v>14.79732838092102</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.23046083874216</v>
+        <v>6.67591531093545</v>
       </c>
       <c r="D2">
-        <v>4.818486768770875</v>
+        <v>10.4355460534386</v>
       </c>
       <c r="E2">
-        <v>12.52239072852941</v>
+        <v>5.454420664924449</v>
       </c>
       <c r="F2">
-        <v>43.84333171344493</v>
+        <v>68.74823184828249</v>
       </c>
       <c r="G2">
-        <v>1.884624129845251</v>
+        <v>1.976512055192523</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>32.59708303044723</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>10.14791917916179</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>102.2022385923777</v>
+        <v>58.09225769719636</v>
       </c>
       <c r="L2">
-        <v>9.441086280929552</v>
+        <v>4.901157924821653</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>38.69027727636657</v>
+      </c>
+      <c r="N2">
+        <v>10.59939632384032</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.751345673661587</v>
+        <v>6.552130130304905</v>
       </c>
       <c r="D3">
-        <v>4.062304481937775</v>
+        <v>9.902767440929203</v>
       </c>
       <c r="E3">
-        <v>11.60006577744908</v>
+        <v>5.543463110894195</v>
       </c>
       <c r="F3">
-        <v>38.82358443127487</v>
+        <v>63.81428656037767</v>
       </c>
       <c r="G3">
-        <v>1.923732318384481</v>
+        <v>2.013248883414096</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.78056540604929</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>9.208093893187714</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>94.1314702916459</v>
+        <v>53.36910080312536</v>
       </c>
       <c r="L3">
-        <v>8.616952199634261</v>
+        <v>4.83475361888079</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>35.51549679692207</v>
+      </c>
+      <c r="N3">
+        <v>11.17523412551073</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.470045934224038</v>
+        <v>6.489398356874422</v>
       </c>
       <c r="D4">
-        <v>3.623605073668731</v>
+        <v>9.607811538411047</v>
       </c>
       <c r="E4">
-        <v>11.03800933184094</v>
+        <v>5.597925543410391</v>
       </c>
       <c r="F4">
-        <v>35.9398609351502</v>
+        <v>60.88281248660758</v>
       </c>
       <c r="G4">
-        <v>1.946649235942873</v>
+        <v>2.035157079687089</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.57269549603525</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>8.637342760325764</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>89.08561578961137</v>
+        <v>50.43840216821113</v>
       </c>
       <c r="L4">
-        <v>8.183725543324469</v>
+        <v>4.796096352124036</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>33.72553603870836</v>
+      </c>
+      <c r="N4">
+        <v>11.51607882169866</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.357435706415074</v>
+        <v>6.466716152950867</v>
       </c>
       <c r="D5">
-        <v>3.449269402387266</v>
+        <v>9.494533275785248</v>
       </c>
       <c r="E5">
-        <v>10.80889932898904</v>
+        <v>5.620150655020236</v>
       </c>
       <c r="F5">
-        <v>34.80425556780132</v>
+        <v>59.70713584884152</v>
       </c>
       <c r="G5">
-        <v>1.955808123936181</v>
+        <v>2.043987002109772</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.69908629311776</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>8.404646775393605</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>86.99761828434552</v>
+        <v>49.23182935767394</v>
       </c>
       <c r="L5">
-        <v>8.03943918683542</v>
+        <v>4.780754279892997</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>33.04676075922607</v>
+      </c>
+      <c r="N5">
+        <v>11.65277979171286</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.338830121106719</v>
+        <v>6.463112380786152</v>
       </c>
       <c r="D6">
-        <v>3.420542035511418</v>
+        <v>9.476112604872698</v>
       </c>
       <c r="E6">
-        <v>10.77082647619359</v>
+        <v>5.623845118439116</v>
       </c>
       <c r="F6">
-        <v>34.61785122857221</v>
+        <v>59.5129297550722</v>
       </c>
       <c r="G6">
-        <v>1.957320336177907</v>
+        <v>2.045448884675972</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.55542635238247</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>8.365961091403172</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>86.64877280242894</v>
+        <v>49.03062788705322</v>
       </c>
       <c r="L6">
-        <v>8.015656543062839</v>
+        <v>4.778228645029705</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>32.93399746294943</v>
+      </c>
+      <c r="N6">
+        <v>11.67537077789281</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.468520391077409</v>
+        <v>6.489081318381013</v>
       </c>
       <c r="D7">
-        <v>3.621238148728925</v>
+        <v>9.606257147563156</v>
       </c>
       <c r="E7">
-        <v>11.03492093667981</v>
+        <v>5.598225054884137</v>
       </c>
       <c r="F7">
-        <v>35.92439635680217</v>
+        <v>60.86688634106969</v>
       </c>
       <c r="G7">
-        <v>1.946773379427342</v>
+        <v>2.035276485478859</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.56081621853299</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>8.634206853116334</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>89.05759502329035</v>
+        <v>50.42218473592701</v>
       </c>
       <c r="L7">
-        <v>8.181767387950707</v>
+        <v>4.795887914959512</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>33.71638435285556</v>
+      </c>
+      <c r="N7">
+        <v>11.51793017247046</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.061721127146047</v>
+        <v>6.630168049388392</v>
       </c>
       <c r="D8">
-        <v>4.551010145576321</v>
+        <v>10.24435265882773</v>
       </c>
       <c r="E8">
-        <v>12.20264735017654</v>
+        <v>5.485223210138175</v>
       </c>
       <c r="F8">
-        <v>42.06358322715739</v>
+        <v>67.02249110303885</v>
       </c>
       <c r="G8">
-        <v>1.898404433566122</v>
+        <v>1.989358881701117</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>31.24710905598044</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>9.821345663752949</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>99.43177929020834</v>
+        <v>56.46683696476872</v>
       </c>
       <c r="L8">
-        <v>9.155716132032122</v>
+        <v>4.877738046603139</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>37.59787716431025</v>
+      </c>
+      <c r="N8">
+        <v>10.8012829275398</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.417402309832925</v>
+        <v>7.041555183309406</v>
       </c>
       <c r="D9">
-        <v>6.727198957854526</v>
+        <v>11.83055296215197</v>
       </c>
       <c r="E9">
-        <v>14.66010314301689</v>
+        <v>5.256670967993608</v>
       </c>
       <c r="F9">
-        <v>56.53137351659471</v>
+        <v>80.82169064217287</v>
       </c>
       <c r="G9">
-        <v>1.787712350726181</v>
+        <v>1.889750719538329</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>42.15830206479539</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>12.32620574484346</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>119.7182054983696</v>
+        <v>68.39789255641713</v>
       </c>
       <c r="L9">
-        <v>11.31635443110247</v>
+        <v>5.063368429012552</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>45.61439692536953</v>
+      </c>
+      <c r="N9">
+        <v>9.227362030330518</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.820562212882053</v>
+        <v>7.497715789676837</v>
       </c>
       <c r="D10">
-        <v>9.026660637582205</v>
+        <v>13.55062231119616</v>
       </c>
       <c r="E10">
-        <v>16.98038717269095</v>
+        <v>5.072457598037507</v>
       </c>
       <c r="F10">
-        <v>71.56284377297473</v>
+        <v>92.9610759944002</v>
       </c>
       <c r="G10">
-        <v>1.673610140498088</v>
+        <v>1.799410888962637</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>53.41299608439011</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>14.68663092477126</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>136.6616419583583</v>
+        <v>78.04854695912947</v>
       </c>
       <c r="L10">
-        <v>13.29060415776358</v>
+        <v>5.236953322304384</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>52.09796638815018</v>
+      </c>
+      <c r="N10">
+        <v>7.796190453624702</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.843564767200056</v>
+        <v>7.779021903903446</v>
       </c>
       <c r="D11">
-        <v>10.72422825080984</v>
+        <v>14.62604369080961</v>
       </c>
       <c r="E11">
-        <v>18.4573216345262</v>
+        <v>4.979138801997252</v>
       </c>
       <c r="F11">
-        <v>82.42203307898831</v>
+        <v>99.61976237766731</v>
       </c>
       <c r="G11">
-        <v>1.590847739507497</v>
+        <v>1.747945407058638</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>61.52393471518641</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>16.30037746708958</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>146.8844798034199</v>
+        <v>83.12684329287814</v>
       </c>
       <c r="L11">
-        <v>14.60418327723636</v>
+        <v>5.337189866176794</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>55.50997618781363</v>
+      </c>
+      <c r="N11">
+        <v>6.985472572872084</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.488071854322445</v>
+        <v>7.905709808683758</v>
       </c>
       <c r="D12">
-        <v>11.80178273278938</v>
+        <v>15.09483411132982</v>
       </c>
       <c r="E12">
-        <v>19.31033628400736</v>
+        <v>4.941189810474609</v>
       </c>
       <c r="F12">
-        <v>89.20899749742954</v>
+        <v>102.4833510848131</v>
       </c>
       <c r="G12">
-        <v>1.538878736186579</v>
+        <v>1.725356287596594</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>66.58970240853132</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>17.28253297040675</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>152.5083855757861</v>
+        <v>85.2693020996911</v>
       </c>
       <c r="L12">
-        <v>15.38900510564287</v>
+        <v>5.381467808315443</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>56.9494686028818</v>
+      </c>
+      <c r="N12">
+        <v>6.631454265382672</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.318209169877603</v>
+        <v>7.877210732152777</v>
       </c>
       <c r="D13">
-        <v>11.51719371079986</v>
+        <v>14.9900609466352</v>
       </c>
       <c r="E13">
-        <v>19.09085925262026</v>
+        <v>4.949517050140348</v>
       </c>
       <c r="F13">
-        <v>87.42444212681642</v>
+        <v>101.8453995021115</v>
       </c>
       <c r="G13">
-        <v>1.552563356124969</v>
+        <v>1.730413264575615</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>65.25786522713494</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>17.02588441487584</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>151.0846891621994</v>
+        <v>84.7940710837056</v>
       </c>
       <c r="L13">
-        <v>15.18499350423857</v>
+        <v>5.371539760602784</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>56.6301681430969</v>
+      </c>
+      <c r="N13">
+        <v>6.71059582319505</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.88652757431561</v>
+        <v>7.788935180845209</v>
       </c>
       <c r="D14">
-        <v>10.79586711183382</v>
+        <v>14.66302266730629</v>
       </c>
       <c r="E14">
-        <v>18.51593593299804</v>
+        <v>4.97608180516502</v>
       </c>
       <c r="F14">
-        <v>82.87578788145704</v>
+        <v>99.84650571415791</v>
       </c>
       <c r="G14">
-        <v>1.587379543230507</v>
+        <v>1.746167032768219</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>61.86267312065235</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>16.36658850990944</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>147.2783446569834</v>
+        <v>83.29736509293741</v>
       </c>
       <c r="L14">
-        <v>14.65744037281204</v>
+        <v>5.340669311010657</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>55.62454813349791</v>
+      </c>
+      <c r="N14">
+        <v>6.957556529796989</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.67350498800263</v>
+        <v>7.73799474662543</v>
       </c>
       <c r="D15">
-        <v>10.44092907143077</v>
+        <v>14.47241857212952</v>
       </c>
       <c r="E15">
-        <v>18.22273944377865</v>
+        <v>4.991951652364046</v>
       </c>
       <c r="F15">
-        <v>80.62407608850748</v>
+        <v>98.67620712717938</v>
       </c>
       <c r="G15">
-        <v>1.604581670240778</v>
+        <v>1.755327126928003</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>60.18161101264155</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>16.03716279414028</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>145.2982086732337</v>
+        <v>82.41559212974275</v>
       </c>
       <c r="L15">
-        <v>14.39196655884534</v>
+        <v>5.322758745158394</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>55.03209358227542</v>
+      </c>
+      <c r="N15">
+        <v>7.101424838020799</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.767718486283618</v>
+        <v>7.481392867677237</v>
       </c>
       <c r="D16">
-        <v>8.939416976213769</v>
+        <v>13.48640286388648</v>
       </c>
       <c r="E16">
-        <v>16.89957674305386</v>
+        <v>5.078285915221261</v>
       </c>
       <c r="F16">
-        <v>70.99919033468028</v>
+        <v>92.55947387905843</v>
       </c>
       <c r="G16">
-        <v>1.677895031682271</v>
+        <v>1.802469274115134</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>52.99168571408872</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>14.60111342781387</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>136.0876949973329</v>
+        <v>77.73772322434367</v>
       </c>
       <c r="L16">
-        <v>13.22016428244568</v>
+        <v>5.23102455415393</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>51.8891354617521</v>
+      </c>
+      <c r="N16">
+        <v>7.844516075766641</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.344466253692967</v>
+        <v>7.34682667748624</v>
       </c>
       <c r="D17">
-        <v>8.242330624721099</v>
+        <v>12.94743228740071</v>
       </c>
       <c r="E17">
-        <v>16.23483243950499</v>
+        <v>5.128256384178349</v>
       </c>
       <c r="F17">
-        <v>66.47613582364235</v>
+        <v>89.17103653964926</v>
       </c>
       <c r="G17">
-        <v>1.712250393901103</v>
+        <v>1.828076041886993</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>49.60928561164791</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>13.90739364525408</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>131.317653504604</v>
+        <v>75.0934227682063</v>
       </c>
       <c r="L17">
-        <v>12.64570404367623</v>
+        <v>5.181514470449704</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>50.11256267573309</v>
+      </c>
+      <c r="N17">
+        <v>8.249616225962479</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.126358577726255</v>
+        <v>7.275575329037337</v>
       </c>
       <c r="D18">
-        <v>7.884343512324335</v>
+        <v>12.65423036050124</v>
       </c>
       <c r="E18">
-        <v>15.87960858486661</v>
+        <v>5.156205441094513</v>
       </c>
       <c r="F18">
-        <v>64.14010764495141</v>
+        <v>87.31408118942082</v>
       </c>
       <c r="G18">
-        <v>1.729978657089198</v>
+        <v>1.841963104776546</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>47.86106656238173</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>13.54343786689843</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>128.7355355363974</v>
+        <v>73.62717389997418</v>
       </c>
       <c r="L18">
-        <v>12.34215974300643</v>
+        <v>5.154766454557889</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>49.12748996838761</v>
+      </c>
+      <c r="N18">
+        <v>8.469604001792222</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.055812812559312</v>
+        <v>7.252360438711886</v>
       </c>
       <c r="D19">
-        <v>7.768743642740421</v>
+        <v>12.57344780490929</v>
       </c>
       <c r="E19">
-        <v>15.76278560711313</v>
+        <v>5.165553411768138</v>
       </c>
       <c r="F19">
-        <v>63.38389045278263</v>
+        <v>86.69845865455969</v>
       </c>
       <c r="G19">
-        <v>1.73571626552573</v>
+        <v>1.84654478761716</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>47.29490898411485</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>13.4247162369344</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>127.8816707277525</v>
+        <v>73.13830655255454</v>
       </c>
       <c r="L19">
-        <v>12.24282555055698</v>
+        <v>5.145958561987094</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>48.7990571259273</v>
+      </c>
+      <c r="N19">
+        <v>8.542217072565474</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.386613490058665</v>
+        <v>7.36047744265331</v>
       </c>
       <c r="D20">
-        <v>8.311607428421757</v>
+        <v>13.00294440511446</v>
       </c>
       <c r="E20">
-        <v>16.30245898973367</v>
+        <v>5.123024354060559</v>
       </c>
       <c r="F20">
-        <v>66.92717196071368</v>
+        <v>89.52152539182082</v>
       </c>
       <c r="G20">
-        <v>1.708826481019407</v>
+        <v>1.82544350403157</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>49.94671668585116</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>13.97720012039888</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>131.8067187676655</v>
+        <v>75.36878430250688</v>
       </c>
       <c r="L20">
-        <v>12.7037546202516</v>
+        <v>5.186593417839331</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>50.29756136675744</v>
+      </c>
+      <c r="N20">
+        <v>8.207933900477958</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.999917789839116</v>
+        <v>7.814170223389552</v>
       </c>
       <c r="D21">
-        <v>10.98507224911495</v>
+        <v>14.75691760260595</v>
       </c>
       <c r="E21">
-        <v>18.66940001010217</v>
+        <v>4.968367700449701</v>
       </c>
       <c r="F21">
-        <v>84.07245363003692</v>
+        <v>100.4215789095791</v>
       </c>
       <c r="G21">
-        <v>1.578228829731984</v>
+        <v>1.74164880977126</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>62.75596474548307</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>16.54080187898911</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>148.3046623185697</v>
+        <v>83.7291632795971</v>
       </c>
       <c r="L21">
-        <v>14.79732838092102</v>
+        <v>5.349514219624028</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>55.91466906059075</v>
+      </c>
+      <c r="N21">
+        <v>6.886665332641567</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.999917789839116</v>
+        <v>8.251953493231182</v>
       </c>
       <c r="D22">
-        <v>10.98507224911495</v>
+        <v>16.3431361645637</v>
       </c>
       <c r="E22">
-        <v>18.66940001010217</v>
+        <v>4.849456633000306</v>
       </c>
       <c r="F22">
-        <v>84.07245363003692</v>
+        <v>109.9926528757543</v>
       </c>
       <c r="G22">
-        <v>1.578228829731984</v>
+        <v>1.664731126058601</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>62.75596474548307</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>16.54080187898911</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>148.3046623185697</v>
+        <v>90.77822723233007</v>
       </c>
       <c r="L22">
-        <v>14.79732838092102</v>
+        <v>5.50128360514725</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>60.6505829717138</v>
+      </c>
+      <c r="N22">
+        <v>5.688471366817509</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.999917789839116</v>
+        <v>7.995850855966763</v>
       </c>
       <c r="D23">
-        <v>10.98507224911495</v>
+        <v>15.42390064644456</v>
       </c>
       <c r="E23">
-        <v>18.66940001010217</v>
+        <v>4.915637530907737</v>
       </c>
       <c r="F23">
-        <v>84.07245363003692</v>
+        <v>104.4793066078614</v>
       </c>
       <c r="G23">
-        <v>1.578228829731984</v>
+        <v>1.709441962778277</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>62.75596474548307</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>16.54080187898911</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>148.3046623185697</v>
+        <v>86.7486719308373</v>
       </c>
       <c r="L23">
-        <v>14.79732838092102</v>
+        <v>5.412773139686879</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>57.94342232618911</v>
+      </c>
+      <c r="N23">
+        <v>6.382846850718805</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.999917789839116</v>
+        <v>7.354287384108826</v>
       </c>
       <c r="D24">
-        <v>10.98507224911495</v>
+        <v>12.97779710390219</v>
       </c>
       <c r="E24">
-        <v>18.66940001010217</v>
+        <v>5.125392115096658</v>
       </c>
       <c r="F24">
-        <v>84.07245363003692</v>
+        <v>89.3627947250022</v>
       </c>
       <c r="G24">
-        <v>1.578228829731984</v>
+        <v>1.826636191962996</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>62.75596474548307</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>16.54080187898911</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>148.3046623185697</v>
+        <v>75.24413130873641</v>
       </c>
       <c r="L24">
-        <v>14.79732838092102</v>
+        <v>5.184292045561835</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>50.21381450848976</v>
+      </c>
+      <c r="N24">
+        <v>8.226817460266284</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.999917789839116</v>
+        <v>6.910646885000578</v>
       </c>
       <c r="D25">
-        <v>10.98507224911495</v>
+        <v>11.35113444108741</v>
       </c>
       <c r="E25">
-        <v>18.66940001010217</v>
+        <v>5.320161511484669</v>
       </c>
       <c r="F25">
-        <v>84.07245363003692</v>
+        <v>76.83928549526674</v>
       </c>
       <c r="G25">
-        <v>1.578228829731984</v>
+        <v>1.918519358034205</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>62.75596474548307</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>16.54080187898911</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>148.3046623185697</v>
+        <v>65.10338757177905</v>
       </c>
       <c r="L25">
-        <v>14.79732838092102</v>
+        <v>5.008941047686593</v>
       </c>
       <c r="M25">
+        <v>43.40110328379088</v>
+      </c>
+      <c r="N25">
+        <v>9.683376806649909</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.67591531093545</v>
+        <v>8.101113683792507</v>
       </c>
       <c r="D2">
-        <v>10.4355460534386</v>
+        <v>2.245811244287449</v>
       </c>
       <c r="E2">
-        <v>5.454420664924449</v>
+        <v>10.10043975315591</v>
       </c>
       <c r="F2">
-        <v>68.74823184828249</v>
+        <v>26.00516188310491</v>
       </c>
       <c r="G2">
-        <v>1.976512055192523</v>
+        <v>38.17289520709101</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.56960350018303</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>20.79219677404595</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>58.09225769719636</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4.901157924821653</v>
+        <v>6.293414370763741</v>
       </c>
       <c r="M2">
-        <v>38.69027727636657</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>10.59939632384032</v>
+        <v>25.60720851682374</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>20.18515636868942</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.552130130304905</v>
+        <v>7.785127429569286</v>
       </c>
       <c r="D3">
-        <v>9.902767440929203</v>
+        <v>2.244637996578006</v>
       </c>
       <c r="E3">
-        <v>5.543463110894195</v>
+        <v>9.684023366103748</v>
       </c>
       <c r="F3">
-        <v>63.81428656037767</v>
+        <v>24.47814165683462</v>
       </c>
       <c r="G3">
-        <v>2.013248883414096</v>
+        <v>35.70289374062885</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.15860329878672</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>19.71867318833963</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>53.36910080312536</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>4.83475361888079</v>
+        <v>6.129783097305824</v>
       </c>
       <c r="M3">
-        <v>35.51549679692207</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>11.17523412551073</v>
+        <v>24.22561817997339</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>19.11230077721736</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.489398356874422</v>
+        <v>7.590141953259994</v>
       </c>
       <c r="D4">
-        <v>9.607811538411047</v>
+        <v>2.243647185058464</v>
       </c>
       <c r="E4">
-        <v>5.597925543410391</v>
+        <v>9.426644215785021</v>
       </c>
       <c r="F4">
-        <v>60.88281248660758</v>
+        <v>23.50981335745261</v>
       </c>
       <c r="G4">
-        <v>2.035157079687089</v>
+        <v>34.12411338352228</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.905255642808646</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>19.04473516603606</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>50.43840216821113</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>4.796096352124036</v>
+        <v>6.031329006355111</v>
       </c>
       <c r="M4">
-        <v>33.72553603870836</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>11.51607882169866</v>
+        <v>23.33595077662917</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>18.43736112132937</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.466716152950867</v>
+        <v>7.510549623673706</v>
       </c>
       <c r="D5">
-        <v>9.494533275785248</v>
+        <v>2.243179385190244</v>
       </c>
       <c r="E5">
-        <v>5.620150655020236</v>
+        <v>9.321475596011629</v>
       </c>
       <c r="F5">
-        <v>59.70713584884152</v>
+        <v>23.10784581760021</v>
       </c>
       <c r="G5">
-        <v>2.043987002109772</v>
+        <v>33.46543063599557</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.801902727079387</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>18.76671526530283</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>49.23182935767394</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>4.780754279892997</v>
+        <v>5.991751545304828</v>
       </c>
       <c r="M5">
-        <v>33.04676075922607</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>11.65277979171286</v>
+        <v>22.96331756195408</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>18.15856240202556</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.463112380786152</v>
+        <v>7.497328686126014</v>
       </c>
       <c r="D6">
-        <v>9.476112604872698</v>
+        <v>2.243097952217293</v>
       </c>
       <c r="E6">
-        <v>5.623845118439116</v>
+        <v>9.303999721703525</v>
       </c>
       <c r="F6">
-        <v>59.5129297550722</v>
+        <v>23.04066688932327</v>
       </c>
       <c r="G6">
-        <v>2.045448884675972</v>
+        <v>33.35514349103724</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.784738608701154</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>18.72035683988407</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>49.03062788705322</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>4.778228645029705</v>
+        <v>5.985213630874061</v>
       </c>
       <c r="M6">
-        <v>32.93399746294943</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>11.67537077789281</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>18.11205183641879</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.489081318381013</v>
+        <v>7.5890689338058</v>
       </c>
       <c r="D7">
-        <v>9.606257147563156</v>
+        <v>2.243641130319684</v>
       </c>
       <c r="E7">
-        <v>5.598225054884137</v>
+        <v>9.425226826822101</v>
       </c>
       <c r="F7">
-        <v>60.86688634106969</v>
+        <v>23.50442156237962</v>
       </c>
       <c r="G7">
-        <v>2.035276485478859</v>
+        <v>34.11529166427958</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9.903862049020594</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>19.04099890925534</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>50.42218473592701</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>4.795887914959512</v>
+        <v>6.030793002204358</v>
       </c>
       <c r="M7">
-        <v>33.71638435285556</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>11.51793017247046</v>
+        <v>23.33096569062624</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>18.43361588164324</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.630168049388392</v>
+        <v>7.99242475220421</v>
       </c>
       <c r="D8">
-        <v>10.24435265882773</v>
+        <v>2.245465282365581</v>
       </c>
       <c r="E8">
-        <v>5.485223210138175</v>
+        <v>9.957291961669572</v>
       </c>
       <c r="F8">
-        <v>67.02249110303885</v>
+        <v>25.48521349833843</v>
       </c>
       <c r="G8">
-        <v>1.989358881701117</v>
+        <v>37.33430335804177</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.4281745305024</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>20.42529708102652</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>56.46683696476872</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>4.877738046603139</v>
+        <v>6.236597384327675</v>
       </c>
       <c r="M8">
-        <v>37.59787716431025</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>10.8012829275398</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>19.81877033987969</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.041555183309406</v>
+        <v>8.771533886645456</v>
       </c>
       <c r="D9">
-        <v>11.83055296215197</v>
+        <v>2.246708306306991</v>
       </c>
       <c r="E9">
-        <v>5.256670967993608</v>
+        <v>10.98185106375544</v>
       </c>
       <c r="F9">
-        <v>80.82169064217287</v>
+        <v>29.11415208108975</v>
       </c>
       <c r="G9">
-        <v>1.889750719538329</v>
+        <v>43.17569024655521</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.4432386918357</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>23.01098300238599</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>68.39789255641713</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>5.063368429012552</v>
+        <v>6.654661833553393</v>
       </c>
       <c r="M9">
-        <v>45.61439692536953</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>9.227362030330518</v>
+        <v>28.34722074380644</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>22.39565093741648</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.497715789676837</v>
+        <v>9.332050753575185</v>
       </c>
       <c r="D10">
-        <v>13.55062231119616</v>
+        <v>2.245921257899889</v>
       </c>
       <c r="E10">
-        <v>5.072457598037507</v>
+        <v>11.71731410985072</v>
       </c>
       <c r="F10">
-        <v>92.9610759944002</v>
+        <v>31.70628742490286</v>
       </c>
       <c r="G10">
-        <v>1.799410888962637</v>
+        <v>47.21694472667139</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.17524025347637</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>24.82070756893636</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>78.04854695912947</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>5.236953322304384</v>
+        <v>6.96882710651751</v>
       </c>
       <c r="M10">
-        <v>52.09796638815018</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>7.796190453624702</v>
+        <v>30.48602834203865</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>24.20829094792109</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.779021903903446</v>
+        <v>9.583750495051312</v>
       </c>
       <c r="D11">
-        <v>14.62604369080961</v>
+        <v>2.245127872899581</v>
       </c>
       <c r="E11">
-        <v>4.979138801997252</v>
+        <v>12.04730067289442</v>
       </c>
       <c r="F11">
-        <v>99.61976237766731</v>
+        <v>32.89016983650723</v>
       </c>
       <c r="G11">
-        <v>1.747945407058638</v>
+        <v>48.98377226916919</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.50440009757286</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>25.62311188420285</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>83.12684329287814</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>5.337189866176794</v>
+        <v>7.112967175583202</v>
       </c>
       <c r="M11">
-        <v>55.50997618781363</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>6.985472572872084</v>
+        <v>31.41016321374476</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>25.12604195287347</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.905709808683758</v>
+        <v>9.678549126236224</v>
       </c>
       <c r="D12">
-        <v>15.09483411132982</v>
+        <v>2.244758864128628</v>
       </c>
       <c r="E12">
-        <v>4.941189810474609</v>
+        <v>12.1715538380919</v>
       </c>
       <c r="F12">
-        <v>102.4833510848131</v>
+        <v>33.33160037361304</v>
       </c>
       <c r="G12">
-        <v>1.725356287596594</v>
+        <v>49.64271687518206</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.62844566247431</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>25.95907515472581</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>85.2693020996911</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>5.381467808315443</v>
+        <v>7.167706373004637</v>
       </c>
       <c r="M12">
-        <v>56.9494686028818</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>6.631454265382672</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>25.46811307511241</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.877210732152777</v>
+        <v>9.658155968037322</v>
       </c>
       <c r="D13">
-        <v>14.9900609466352</v>
+        <v>2.244841486250303</v>
       </c>
       <c r="E13">
-        <v>4.949517050140348</v>
+        <v>12.14482563088348</v>
       </c>
       <c r="F13">
-        <v>101.8453995021115</v>
+        <v>33.23683424559351</v>
       </c>
       <c r="G13">
-        <v>1.730413264575615</v>
+        <v>49.50124787243027</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.60175751164118</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>25.88474019021413</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>84.7940710837056</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>5.371539760602784</v>
+        <v>7.155910596970198</v>
       </c>
       <c r="M13">
-        <v>56.6301681430969</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>6.71059582319505</v>
+        <v>31.67947945617568</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>25.39468277392158</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.788935180845209</v>
+        <v>9.591560145376418</v>
       </c>
       <c r="D14">
-        <v>14.66302266730629</v>
+        <v>2.245098924349069</v>
       </c>
       <c r="E14">
-        <v>4.97608180516502</v>
+        <v>12.05753740085019</v>
       </c>
       <c r="F14">
-        <v>99.84650571415791</v>
+        <v>32.9266237124723</v>
       </c>
       <c r="G14">
-        <v>1.746167032768219</v>
+        <v>49.03818556232727</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.5146176455622</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>25.64792020709452</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>83.29736509293741</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>5.340669311010657</v>
+        <v>7.117467557519032</v>
       </c>
       <c r="M14">
-        <v>55.62454813349791</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>6.957556529796989</v>
+        <v>31.43851144188476</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>25.15429306854289</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.73799474662543</v>
+        <v>9.550700228556359</v>
       </c>
       <c r="D15">
-        <v>14.47241857212952</v>
+        <v>2.245247498057218</v>
       </c>
       <c r="E15">
-        <v>4.991951652364046</v>
+        <v>12.00397786809493</v>
       </c>
       <c r="F15">
-        <v>98.67620712717938</v>
+        <v>32.73571874512682</v>
       </c>
       <c r="G15">
-        <v>1.755327126928003</v>
+        <v>48.75323539175474</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.4611626570045</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>25.51806677768497</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>82.41559212974275</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>5.322758745158394</v>
+        <v>7.093939982456702</v>
       </c>
       <c r="M15">
-        <v>55.03209358227542</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>7.101424838020799</v>
+        <v>31.28998244549381</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>25.00633998410041</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.481392867677237</v>
+        <v>9.315531588236549</v>
       </c>
       <c r="D16">
-        <v>13.48640286388648</v>
+        <v>2.245963846794922</v>
       </c>
       <c r="E16">
-        <v>5.078285915221261</v>
+        <v>11.69565211919148</v>
       </c>
       <c r="F16">
-        <v>92.55947387905843</v>
+        <v>31.62794824102296</v>
       </c>
       <c r="G16">
-        <v>1.802469274115134</v>
+        <v>47.100052253424</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.15364716998924</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>24.76784330173226</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>77.73772322434367</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>5.23102455415393</v>
+        <v>6.959430047768887</v>
       </c>
       <c r="M16">
-        <v>51.8891354617521</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>7.844516075766641</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>24.14754281043228</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.34682667748624</v>
+        <v>9.170388019715006</v>
       </c>
       <c r="D17">
-        <v>12.94743228740071</v>
+        <v>2.246287688521762</v>
       </c>
       <c r="E17">
-        <v>5.128256384178349</v>
+        <v>11.50529204130524</v>
       </c>
       <c r="F17">
-        <v>89.17103653964926</v>
+        <v>30.93598107561924</v>
       </c>
       <c r="G17">
-        <v>1.828076041886993</v>
+        <v>46.06765822297415</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.96397435185708</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>24.30221242708325</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>75.0934227682063</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>5.181514470449704</v>
+        <v>6.87721045557638</v>
       </c>
       <c r="M17">
-        <v>50.11256267573309</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>8.249616225962479</v>
+        <v>29.88120505119274</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>23.67876614995929</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.275575329037337</v>
+        <v>9.086598039027461</v>
       </c>
       <c r="D18">
-        <v>12.65423036050124</v>
+        <v>2.246433358497862</v>
       </c>
       <c r="E18">
-        <v>5.156205441094513</v>
+        <v>11.3953725770411</v>
       </c>
       <c r="F18">
-        <v>87.31408118942082</v>
+        <v>30.53339353948235</v>
       </c>
       <c r="G18">
-        <v>1.841963104776546</v>
+        <v>45.46710309626145</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.85452073624117</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>24.03243200569439</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>73.62717389997418</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>5.154766454557889</v>
+        <v>6.830036031151182</v>
       </c>
       <c r="M18">
-        <v>49.12748996838761</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>8.469604001792222</v>
+        <v>29.56404287680425</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>23.41084739587975</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.252360438711886</v>
+        <v>9.058176940618715</v>
       </c>
       <c r="D19">
-        <v>12.57344780490929</v>
+        <v>2.246475882408178</v>
       </c>
       <c r="E19">
-        <v>5.165553411768138</v>
+        <v>11.35808372489934</v>
       </c>
       <c r="F19">
-        <v>86.69845865455969</v>
+        <v>30.40212041019607</v>
       </c>
       <c r="G19">
-        <v>1.84654478761716</v>
+        <v>45.26260173745011</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.81740178835852</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>23.9407544390017</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>73.13830655255454</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>5.145958561987094</v>
+        <v>6.814084216060216</v>
       </c>
       <c r="M19">
-        <v>48.7990571259273</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>8.542217072565474</v>
+        <v>29.45587200880245</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>23.31978344347843</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.36047744265331</v>
+        <v>9.185870949685086</v>
       </c>
       <c r="D20">
-        <v>13.00294440511446</v>
+        <v>2.2462574583153</v>
       </c>
       <c r="E20">
-        <v>5.123024354060559</v>
+        <v>11.52560103559777</v>
       </c>
       <c r="F20">
-        <v>89.52152539182082</v>
+        <v>31.01011611637994</v>
       </c>
       <c r="G20">
-        <v>1.82544350403157</v>
+        <v>46.1782557582036</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>11.98420289812468</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>24.35198321208863</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>75.36878430250688</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>5.186593417839331</v>
+        <v>6.88595101528622</v>
       </c>
       <c r="M20">
-        <v>50.29756136675744</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>8.207933900477958</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>23.7281845476652</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.814170223389552</v>
+        <v>9.611135192184642</v>
       </c>
       <c r="D21">
-        <v>14.75691760260595</v>
+        <v>2.245025219292534</v>
       </c>
       <c r="E21">
-        <v>4.968367700449701</v>
+        <v>12.08319550331881</v>
       </c>
       <c r="F21">
-        <v>100.4215789095791</v>
+        <v>33.01792572141105</v>
       </c>
       <c r="G21">
-        <v>1.74164880977126</v>
+        <v>49.17447104156228</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.54022932589048</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>25.7130236900727</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>83.7291632795971</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>5.349514219624028</v>
+        <v>7.128755090237431</v>
       </c>
       <c r="M21">
-        <v>55.91466906059075</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>6.886665332641567</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>25.22504854869853</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.251953493231182</v>
+        <v>9.886060157593207</v>
       </c>
       <c r="D22">
-        <v>16.3431361645637</v>
+        <v>2.243817101421282</v>
       </c>
       <c r="E22">
-        <v>4.849456633000306</v>
+        <v>12.44349416688742</v>
       </c>
       <c r="F22">
-        <v>109.9926528757543</v>
+        <v>34.29011909918517</v>
       </c>
       <c r="G22">
-        <v>1.664731126058601</v>
+        <v>51.07383266854979</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.90011676320389</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>26.7108924795032</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>90.77822723233007</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>5.50128360514725</v>
+        <v>7.288348929257467</v>
       </c>
       <c r="M22">
-        <v>60.6505829717138</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>5.688471366817509</v>
+        <v>32.49403281050594</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>26.21067566948356</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.995850855966763</v>
+        <v>9.739613549509718</v>
       </c>
       <c r="D23">
-        <v>15.42390064644456</v>
+        <v>2.244500839732967</v>
       </c>
       <c r="E23">
-        <v>4.915637530907737</v>
+        <v>12.25158391544147</v>
       </c>
       <c r="F23">
-        <v>104.4793066078614</v>
+        <v>33.61474200691308</v>
       </c>
       <c r="G23">
-        <v>1.709441962778277</v>
+        <v>50.06542005592447</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.70837060357793</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>26.18116719943933</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>86.7486719308373</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>5.412773139686879</v>
+        <v>7.203092587890884</v>
       </c>
       <c r="M23">
-        <v>57.94342232618911</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>6.382846850718805</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>25.68749079202576</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.354287384108826</v>
+        <v>9.178872188279508</v>
       </c>
       <c r="D24">
-        <v>12.97779710390219</v>
+        <v>2.246271251128789</v>
       </c>
       <c r="E24">
-        <v>5.125392115096658</v>
+        <v>11.51642082721183</v>
       </c>
       <c r="F24">
-        <v>89.3627947250022</v>
+        <v>30.97661451886922</v>
       </c>
       <c r="G24">
-        <v>1.826636191962996</v>
+        <v>46.12827648484896</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11.97505883981479</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>24.32948832364241</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>75.24413130873641</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>5.184292045561835</v>
+        <v>6.881999111659443</v>
       </c>
       <c r="M24">
-        <v>50.21381450848976</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>8.226817460266284</v>
+        <v>29.91317649911916</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>23.70584926699478</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.910646885000578</v>
+        <v>8.562566436452276</v>
       </c>
       <c r="D25">
-        <v>11.35113444108741</v>
+        <v>2.246649452261509</v>
       </c>
       <c r="E25">
-        <v>5.320161511484669</v>
+        <v>10.70736639180172</v>
       </c>
       <c r="F25">
-        <v>76.83928549526674</v>
+        <v>28.16106991023284</v>
       </c>
       <c r="G25">
-        <v>1.918519358034205</v>
+        <v>41.62745828042508</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.17070305040834</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>22.32666809239116</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>65.10338757177905</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>5.008941047686593</v>
+        <v>6.540213775946111</v>
       </c>
       <c r="M25">
-        <v>43.40110328379088</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>9.683376806649909</v>
+        <v>27.51708508088413</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>21.71474064736676</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.101113683792507</v>
+        <v>10.47960307264713</v>
       </c>
       <c r="D2">
-        <v>2.245811244287449</v>
+        <v>3.838247384597163</v>
       </c>
       <c r="E2">
-        <v>10.10043975315591</v>
+        <v>12.7676671299662</v>
       </c>
       <c r="F2">
-        <v>26.00516188310491</v>
+        <v>24.38713471282616</v>
       </c>
       <c r="G2">
-        <v>38.17289520709101</v>
+        <v>30.25043463407922</v>
       </c>
       <c r="H2">
-        <v>10.56960350018303</v>
+        <v>13.72114037120489</v>
       </c>
       <c r="I2">
-        <v>20.79219677404595</v>
+        <v>22.53310231119873</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.293414370763741</v>
+        <v>9.329841130967058</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883711</v>
       </c>
       <c r="O2">
-        <v>20.18515636868942</v>
+        <v>21.28330997490936</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.785127429569286</v>
+        <v>10.45037202107951</v>
       </c>
       <c r="D3">
-        <v>2.244637996578006</v>
+        <v>3.835930178954344</v>
       </c>
       <c r="E3">
-        <v>9.684023366103748</v>
+        <v>12.72644113586969</v>
       </c>
       <c r="F3">
-        <v>24.47814165683462</v>
+        <v>24.05226021884549</v>
       </c>
       <c r="G3">
-        <v>35.70289374062885</v>
+        <v>29.53861713261295</v>
       </c>
       <c r="H3">
-        <v>10.15860329878672</v>
+        <v>13.68306165960474</v>
       </c>
       <c r="I3">
-        <v>19.71867318833963</v>
+        <v>22.35737378144339</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.129783097305824</v>
+        <v>9.328454093328636</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502701</v>
       </c>
       <c r="O3">
-        <v>19.11230077721736</v>
+        <v>21.09573507956754</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.590141953259994</v>
+        <v>10.43465040749201</v>
       </c>
       <c r="D4">
-        <v>2.243647185058464</v>
+        <v>3.834424825415732</v>
       </c>
       <c r="E4">
-        <v>9.426644215785021</v>
+        <v>12.70398083294624</v>
       </c>
       <c r="F4">
-        <v>23.50981335745261</v>
+        <v>23.85142729026402</v>
       </c>
       <c r="G4">
-        <v>34.12411338352228</v>
+        <v>29.10242667723967</v>
       </c>
       <c r="H4">
-        <v>9.905255642808646</v>
+        <v>13.66258951676806</v>
       </c>
       <c r="I4">
-        <v>19.04473516603606</v>
+        <v>22.25470344097576</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.031329006355111</v>
+        <v>9.329295013486748</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896362</v>
       </c>
       <c r="O4">
-        <v>18.43736112132937</v>
+        <v>20.9853999308325</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.510549623673706</v>
+        <v>10.42880791258619</v>
       </c>
       <c r="D5">
-        <v>2.243179385190244</v>
+        <v>3.833790664373051</v>
       </c>
       <c r="E5">
-        <v>9.321475596011629</v>
+        <v>12.69555162918332</v>
       </c>
       <c r="F5">
-        <v>23.10784581760021</v>
+        <v>23.77089341594922</v>
       </c>
       <c r="G5">
-        <v>33.46543063599557</v>
+        <v>28.92518720548097</v>
       </c>
       <c r="H5">
-        <v>9.801902727079387</v>
+        <v>13.65498394736395</v>
       </c>
       <c r="I5">
-        <v>18.76671526530283</v>
+        <v>22.2142189993694</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.991751545304828</v>
+        <v>9.330063813335171</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188765</v>
       </c>
       <c r="O5">
-        <v>18.15856240202556</v>
+        <v>20.94169908310518</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.497328686126014</v>
+        <v>10.42787196222153</v>
       </c>
       <c r="D6">
-        <v>2.243097952217293</v>
+        <v>3.833684112561818</v>
       </c>
       <c r="E6">
-        <v>9.303999721703525</v>
+        <v>12.69419583309908</v>
       </c>
       <c r="F6">
-        <v>23.04066688932327</v>
+        <v>23.75760278919321</v>
       </c>
       <c r="G6">
-        <v>33.35514349103724</v>
+        <v>28.89579634248972</v>
       </c>
       <c r="H6">
-        <v>9.784738608701154</v>
+        <v>13.6537657119091</v>
       </c>
       <c r="I6">
-        <v>18.72035683988407</v>
+        <v>22.20757951812507</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.985213630874061</v>
+        <v>9.330217219497447</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566597</v>
       </c>
       <c r="O6">
-        <v>18.11205183641879</v>
+        <v>20.93452006577364</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.5890689338058</v>
+        <v>10.43456932385955</v>
       </c>
       <c r="D7">
-        <v>2.243641130319684</v>
+        <v>3.834416356728021</v>
       </c>
       <c r="E7">
-        <v>9.425226826822101</v>
+        <v>12.70386421649469</v>
       </c>
       <c r="F7">
-        <v>23.50442156237962</v>
+        <v>23.85033575306436</v>
       </c>
       <c r="G7">
-        <v>34.11529166427958</v>
+        <v>29.10003389911527</v>
       </c>
       <c r="H7">
-        <v>9.903862049020594</v>
+        <v>13.66248395444727</v>
       </c>
       <c r="I7">
-        <v>19.04099890925534</v>
+        <v>22.25415191823602</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.030793002204358</v>
+        <v>9.329303655928605</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304767603</v>
       </c>
       <c r="O7">
-        <v>18.43361588164324</v>
+        <v>20.98480539963678</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.99242475220421</v>
+        <v>10.46906490508427</v>
       </c>
       <c r="D8">
-        <v>2.245465282365581</v>
+        <v>3.83746557992337</v>
       </c>
       <c r="E8">
-        <v>9.957291961669572</v>
+        <v>12.75286433203494</v>
       </c>
       <c r="F8">
-        <v>25.48521349833843</v>
+        <v>24.27074128271646</v>
       </c>
       <c r="G8">
-        <v>37.33430335804177</v>
+        <v>30.00499325919393</v>
       </c>
       <c r="H8">
-        <v>10.4281745305024</v>
+        <v>13.70741082898358</v>
       </c>
       <c r="I8">
-        <v>20.42529708102652</v>
+        <v>22.47145089682981</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.236597384327675</v>
+        <v>9.329011947853408</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656867</v>
       </c>
       <c r="O8">
-        <v>19.81877033987969</v>
+        <v>21.21765833673262</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.771533886645456</v>
+        <v>10.55415950457142</v>
       </c>
       <c r="D9">
-        <v>2.246708306306991</v>
+        <v>3.84278785579802</v>
       </c>
       <c r="E9">
-        <v>10.98185106375544</v>
+        <v>12.87127721233435</v>
       </c>
       <c r="F9">
-        <v>29.11415208108975</v>
+        <v>25.12838031552727</v>
       </c>
       <c r="G9">
-        <v>43.17569024655521</v>
+        <v>31.77406878043176</v>
       </c>
       <c r="H9">
-        <v>11.4432386918357</v>
+        <v>13.81830698560672</v>
       </c>
       <c r="I9">
-        <v>23.01098300238599</v>
+        <v>22.93717509711494</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.654661833553393</v>
+        <v>9.341840360411052</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380644</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
-        <v>22.39565093741648</v>
+        <v>21.71054551788774</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.332050753575185</v>
+        <v>10.62699022019643</v>
       </c>
       <c r="D10">
-        <v>2.245921257899889</v>
+        <v>3.84629491770482</v>
       </c>
       <c r="E10">
-        <v>11.71731410985072</v>
+        <v>12.97141709788208</v>
       </c>
       <c r="F10">
-        <v>31.70628742490286</v>
+        <v>25.77235484085012</v>
       </c>
       <c r="G10">
-        <v>47.21694472667139</v>
+        <v>33.05458916311118</v>
       </c>
       <c r="H10">
-        <v>12.17524025347637</v>
+        <v>13.91325508847762</v>
       </c>
       <c r="I10">
-        <v>24.82070756893636</v>
+        <v>23.3008192852084</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.96882710651751</v>
+        <v>9.359385048239249</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
-        <v>24.20829094792109</v>
+        <v>22.09180496302788</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.583750495051312</v>
+        <v>10.66228121176306</v>
       </c>
       <c r="D11">
-        <v>2.245127872899581</v>
+        <v>3.847802294688922</v>
       </c>
       <c r="E11">
-        <v>12.04730067289442</v>
+        <v>13.01971159451615</v>
       </c>
       <c r="F11">
-        <v>32.89016983650723</v>
+        <v>26.06697412088463</v>
       </c>
       <c r="G11">
-        <v>48.98377226916919</v>
+        <v>33.62988588454041</v>
       </c>
       <c r="H11">
-        <v>12.50440009757286</v>
+        <v>13.95927001000017</v>
       </c>
       <c r="I11">
-        <v>25.62311188420285</v>
+        <v>23.47031043443026</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.112967175583202</v>
+        <v>9.369114970458936</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
-        <v>25.12604195287347</v>
+        <v>22.26874091314627</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.678549126236224</v>
+        <v>10.67594794756019</v>
       </c>
       <c r="D12">
-        <v>2.244758864128628</v>
+        <v>3.848360398001512</v>
       </c>
       <c r="E12">
-        <v>12.1715538380919</v>
+        <v>13.0383826610261</v>
       </c>
       <c r="F12">
-        <v>33.33160037361304</v>
+        <v>26.17866826080337</v>
       </c>
       <c r="G12">
-        <v>49.64271687518206</v>
+        <v>33.84646349813296</v>
       </c>
       <c r="H12">
-        <v>12.62844566247431</v>
+        <v>13.97709061067313</v>
       </c>
       <c r="I12">
-        <v>25.95907515472581</v>
+        <v>23.53502473213233</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.167706373004637</v>
+        <v>9.373049282135611</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585682186</v>
       </c>
       <c r="O12">
-        <v>25.46811307511241</v>
+        <v>22.33618803746311</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.658155968037322</v>
+        <v>10.67299123339524</v>
       </c>
       <c r="D13">
-        <v>2.244841486250303</v>
+        <v>3.848240766474188</v>
       </c>
       <c r="E13">
-        <v>12.14482563088348</v>
+        <v>13.03434466247171</v>
       </c>
       <c r="F13">
-        <v>33.23683424559351</v>
+        <v>26.154608986113</v>
       </c>
       <c r="G13">
-        <v>49.50124787243027</v>
+        <v>33.79987991998842</v>
       </c>
       <c r="H13">
-        <v>12.60175751164118</v>
+        <v>13.97323519235046</v>
       </c>
       <c r="I13">
-        <v>25.88474019021413</v>
+        <v>23.52106455949439</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.155910596970198</v>
+        <v>9.372190876534379</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617568</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
-        <v>25.39468277392158</v>
+        <v>22.32164321214134</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.591560145376418</v>
+        <v>10.663399560055</v>
       </c>
       <c r="D14">
-        <v>2.245098924349069</v>
+        <v>3.847848465165371</v>
       </c>
       <c r="E14">
-        <v>12.05753740085019</v>
+        <v>13.02124006446528</v>
       </c>
       <c r="F14">
-        <v>32.9266237124723</v>
+        <v>26.0761613290333</v>
       </c>
       <c r="G14">
-        <v>49.03818556232727</v>
+        <v>33.64773069960471</v>
       </c>
       <c r="H14">
-        <v>12.5146176455622</v>
+        <v>13.96072825039572</v>
       </c>
       <c r="I14">
-        <v>25.64792020709452</v>
+        <v>23.47562417072503</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.117467557519032</v>
+        <v>9.369433652557962</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489659</v>
       </c>
       <c r="O14">
-        <v>25.15429306854289</v>
+        <v>22.2742812366249</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.550700228556359</v>
+        <v>10.65756357761039</v>
       </c>
       <c r="D15">
-        <v>2.245247498057218</v>
+        <v>3.847606512817502</v>
       </c>
       <c r="E15">
-        <v>12.00397786809493</v>
+        <v>13.01326265647562</v>
       </c>
       <c r="F15">
-        <v>32.73571874512682</v>
+        <v>26.02812328403841</v>
       </c>
       <c r="G15">
-        <v>48.75323539175474</v>
+        <v>33.55436215727666</v>
       </c>
       <c r="H15">
-        <v>12.4611626570045</v>
+        <v>13.95311861412575</v>
       </c>
       <c r="I15">
-        <v>25.51806677768497</v>
+        <v>23.44785826721328</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.093939982456702</v>
+        <v>9.367777251676774</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549381</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
-        <v>25.00633998410041</v>
+        <v>22.24532692856539</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.315531588236549</v>
+        <v>10.62472667925071</v>
       </c>
       <c r="D16">
-        <v>2.245963846794922</v>
+        <v>3.846194631687085</v>
       </c>
       <c r="E16">
-        <v>11.69565211919148</v>
+        <v>12.96831515068674</v>
       </c>
       <c r="F16">
-        <v>31.62794824102296</v>
+        <v>25.75312477416261</v>
       </c>
       <c r="G16">
-        <v>47.100052253424</v>
+        <v>33.01682629264795</v>
       </c>
       <c r="H16">
-        <v>12.15364716998924</v>
+        <v>13.91030385047433</v>
       </c>
       <c r="I16">
-        <v>24.76784330173226</v>
+        <v>23.28981995863531</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.959430047768887</v>
+        <v>9.358784226635981</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
-        <v>24.14754281043228</v>
+        <v>22.08030725983653</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.170388019715006</v>
+        <v>10.60513012757246</v>
       </c>
       <c r="D17">
-        <v>2.246287688521762</v>
+        <v>3.845305910785564</v>
       </c>
       <c r="E17">
-        <v>11.50529204130524</v>
+        <v>12.9414355183911</v>
       </c>
       <c r="F17">
-        <v>30.93598107561924</v>
+        <v>25.58476974013747</v>
       </c>
       <c r="G17">
-        <v>46.06765822297415</v>
+        <v>32.68504285504687</v>
       </c>
       <c r="H17">
-        <v>11.96397435185708</v>
+        <v>13.88475429673296</v>
       </c>
       <c r="I17">
-        <v>24.30221242708325</v>
+        <v>23.19387278324213</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.87721045557638</v>
+        <v>9.35371407584595</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.9381421901699</v>
       </c>
       <c r="O17">
-        <v>23.67876614995929</v>
+        <v>21.97992825560852</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.086598039027461</v>
+        <v>10.59406251079566</v>
       </c>
       <c r="D18">
-        <v>2.246433358497862</v>
+        <v>3.844786461840909</v>
       </c>
       <c r="E18">
-        <v>11.3953725770411</v>
+        <v>12.92623370685793</v>
       </c>
       <c r="F18">
-        <v>30.53339353948235</v>
+        <v>25.48810033995069</v>
       </c>
       <c r="G18">
-        <v>45.46710309626145</v>
+        <v>32.49354347185814</v>
       </c>
       <c r="H18">
-        <v>11.85452073624117</v>
+        <v>13.87032518876805</v>
       </c>
       <c r="I18">
-        <v>24.03243200569439</v>
+        <v>23.1390726165462</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.830036031151182</v>
+        <v>9.350962573605424</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680425</v>
+        <v>20.79000725568364</v>
       </c>
       <c r="O18">
-        <v>23.41084739587975</v>
+        <v>21.92252576625879</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.058176940618715</v>
+        <v>10.59035043845728</v>
       </c>
       <c r="D19">
-        <v>2.246475882408178</v>
+        <v>3.844609164858994</v>
       </c>
       <c r="E19">
-        <v>11.35808372489934</v>
+        <v>12.92113138313668</v>
       </c>
       <c r="F19">
-        <v>30.40212041019607</v>
+        <v>25.45540136201334</v>
       </c>
       <c r="G19">
-        <v>45.26260173745011</v>
+        <v>32.42859811871119</v>
       </c>
       <c r="H19">
-        <v>11.81740178835852</v>
+        <v>13.86548577975245</v>
       </c>
       <c r="I19">
-        <v>23.9407544390017</v>
+        <v>23.1205861446342</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.814084216060216</v>
+        <v>9.350059299437921</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880245</v>
+        <v>20.73962067985786</v>
       </c>
       <c r="O19">
-        <v>23.31978344347843</v>
+        <v>21.90314919282143</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.185870949685086</v>
+        <v>10.60719517618117</v>
       </c>
       <c r="D20">
-        <v>2.2462574583153</v>
+        <v>3.845401373986273</v>
       </c>
       <c r="E20">
-        <v>11.52560103559777</v>
+        <v>12.94427021076845</v>
       </c>
       <c r="F20">
-        <v>31.01011611637994</v>
+        <v>25.60267527220227</v>
       </c>
       <c r="G20">
-        <v>46.1782557582036</v>
+        <v>32.72043249904289</v>
       </c>
       <c r="H20">
-        <v>11.98420289812468</v>
+        <v>13.88744659862088</v>
       </c>
       <c r="I20">
-        <v>24.35198321208863</v>
+        <v>23.20404694578725</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.88595101528622</v>
+        <v>9.354236766142472</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799484618</v>
       </c>
       <c r="O20">
-        <v>23.7281845476652</v>
+        <v>21.99057973980244</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.611135192184642</v>
+        <v>10.66620871351054</v>
       </c>
       <c r="D21">
-        <v>2.245025219292534</v>
+        <v>3.847964038868174</v>
       </c>
       <c r="E21">
-        <v>12.08319550331881</v>
+        <v>13.02507889982575</v>
       </c>
       <c r="F21">
-        <v>33.01792572141105</v>
+        <v>26.09920070939486</v>
       </c>
       <c r="G21">
-        <v>49.17447104156228</v>
+        <v>33.69245701387599</v>
       </c>
       <c r="H21">
-        <v>12.54022932589048</v>
+        <v>13.96439118574074</v>
       </c>
       <c r="I21">
-        <v>25.7130236900727</v>
+        <v>23.48895711292354</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.128755090237431</v>
+        <v>9.370236750874012</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>21.70751365554064</v>
       </c>
       <c r="O21">
-        <v>25.22504854869853</v>
+        <v>22.28818097415044</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.886060157593207</v>
+        <v>10.7065384941542</v>
       </c>
       <c r="D22">
-        <v>2.243817101421282</v>
+        <v>3.849564794649635</v>
       </c>
       <c r="E22">
-        <v>12.44349416688742</v>
+        <v>13.08011881599129</v>
       </c>
       <c r="F22">
-        <v>34.29011909918517</v>
+        <v>26.42440601491071</v>
       </c>
       <c r="G22">
-        <v>51.07383266854979</v>
+        <v>34.32020302926971</v>
       </c>
       <c r="H22">
-        <v>12.90011676320389</v>
+        <v>14.01698051735743</v>
       </c>
       <c r="I22">
-        <v>26.7108924795032</v>
+        <v>23.67823623155879</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.288348929257467</v>
+        <v>9.3821487773586</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
-        <v>26.21067566948356</v>
+        <v>22.48524919820985</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.739613549509718</v>
+        <v>10.68485529430153</v>
       </c>
       <c r="D23">
-        <v>2.244500839732967</v>
+        <v>3.848717238062495</v>
       </c>
       <c r="E23">
-        <v>12.25158391544147</v>
+        <v>13.05054305136357</v>
       </c>
       <c r="F23">
-        <v>33.61474200691308</v>
+        <v>26.25081040271152</v>
       </c>
       <c r="G23">
-        <v>50.06542005592447</v>
+        <v>33.9859258456891</v>
       </c>
       <c r="H23">
-        <v>12.70837060357793</v>
+        <v>13.98870551089878</v>
       </c>
       <c r="I23">
-        <v>26.18116719943933</v>
+        <v>23.57695091822147</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.203092587890884</v>
+        <v>9.375658567017156</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110912574</v>
       </c>
       <c r="O23">
-        <v>25.68749079202576</v>
+        <v>22.37985435241043</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.178872188279508</v>
+        <v>10.60626094819111</v>
       </c>
       <c r="D24">
-        <v>2.246271251128789</v>
+        <v>3.845358241561974</v>
       </c>
       <c r="E24">
-        <v>11.51642082721183</v>
+        <v>12.94298786167005</v>
       </c>
       <c r="F24">
-        <v>30.97661451886922</v>
+        <v>25.59457979821085</v>
       </c>
       <c r="G24">
-        <v>46.12827648484896</v>
+        <v>32.70443516708613</v>
       </c>
       <c r="H24">
-        <v>11.97505883981479</v>
+        <v>13.88622859925318</v>
       </c>
       <c r="I24">
-        <v>24.32948832364241</v>
+        <v>23.1994460778512</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.881999111659443</v>
+        <v>9.353999948776782</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911916</v>
+        <v>20.95310750188672</v>
       </c>
       <c r="O24">
-        <v>23.70584926699478</v>
+        <v>21.98576324384719</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.562566436452276</v>
+        <v>10.52930253894799</v>
       </c>
       <c r="D25">
-        <v>2.246649452261509</v>
+        <v>3.841418667015914</v>
       </c>
       <c r="E25">
-        <v>10.70736639180172</v>
+        <v>12.83689861319018</v>
       </c>
       <c r="F25">
-        <v>28.16106991023284</v>
+        <v>24.89346810154559</v>
       </c>
       <c r="G25">
-        <v>41.62745828042508</v>
+        <v>31.29776813676083</v>
       </c>
       <c r="H25">
-        <v>11.17070305040834</v>
+        <v>13.78590716680946</v>
       </c>
       <c r="I25">
-        <v>22.32666809239116</v>
+        <v>22.80721247484083</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.540213775946111</v>
+        <v>9.33693962636452</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088413</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
-        <v>21.71474064736676</v>
+        <v>21.57362437670867</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.47960307264713</v>
+        <v>8.101113683792507</v>
       </c>
       <c r="D2">
-        <v>3.838247384597163</v>
+        <v>2.245811244287511</v>
       </c>
       <c r="E2">
-        <v>12.7676671299662</v>
+        <v>10.10043975315593</v>
       </c>
       <c r="F2">
-        <v>24.38713471282616</v>
+        <v>26.00516188310493</v>
       </c>
       <c r="G2">
-        <v>30.25043463407922</v>
+        <v>38.17289520709109</v>
       </c>
       <c r="H2">
-        <v>13.72114037120489</v>
+        <v>10.56960350018307</v>
       </c>
       <c r="I2">
-        <v>22.53310231119873</v>
+        <v>20.79219677404597</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.329841130967058</v>
+        <v>6.293414370763732</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883711</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
-        <v>21.28330997490936</v>
+        <v>20.18515636868944</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.45037202107951</v>
+        <v>7.785127429569365</v>
       </c>
       <c r="D3">
-        <v>3.835930178954344</v>
+        <v>2.244637996577945</v>
       </c>
       <c r="E3">
-        <v>12.72644113586969</v>
+        <v>9.684023366103824</v>
       </c>
       <c r="F3">
-        <v>24.05226021884549</v>
+        <v>24.47814165683451</v>
       </c>
       <c r="G3">
-        <v>29.53861713261295</v>
+        <v>35.70289374062881</v>
       </c>
       <c r="H3">
-        <v>13.68306165960474</v>
+        <v>10.15860329878664</v>
       </c>
       <c r="I3">
-        <v>22.35737378144339</v>
+        <v>19.71867318833953</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.328454093328636</v>
+        <v>6.129783097305863</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502701</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
-        <v>21.09573507956754</v>
+        <v>19.11230077721725</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.43465040749201</v>
+        <v>7.590141953259868</v>
       </c>
       <c r="D4">
-        <v>3.834424825415732</v>
+        <v>2.243647185058657</v>
       </c>
       <c r="E4">
-        <v>12.70398083294624</v>
+        <v>9.426644215784998</v>
       </c>
       <c r="F4">
-        <v>23.85142729026402</v>
+        <v>23.50981335745258</v>
       </c>
       <c r="G4">
-        <v>29.10242667723967</v>
+        <v>34.12411338352229</v>
       </c>
       <c r="H4">
-        <v>13.66258951676806</v>
+        <v>9.905255642808646</v>
       </c>
       <c r="I4">
-        <v>22.25470344097576</v>
+        <v>19.04473516603605</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.329295013486748</v>
+        <v>6.031329006355099</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896362</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
-        <v>20.9853999308325</v>
+        <v>18.43736112132938</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.42880791258619</v>
+        <v>7.510549623673706</v>
       </c>
       <c r="D5">
-        <v>3.833790664373051</v>
+        <v>2.243179385190308</v>
       </c>
       <c r="E5">
-        <v>12.69555162918332</v>
+        <v>9.321475596011606</v>
       </c>
       <c r="F5">
-        <v>23.77089341594922</v>
+        <v>23.1078458176002</v>
       </c>
       <c r="G5">
-        <v>28.92518720548097</v>
+        <v>33.46543063599559</v>
       </c>
       <c r="H5">
-        <v>13.65498394736395</v>
+        <v>9.801902727079392</v>
       </c>
       <c r="I5">
-        <v>22.2142189993694</v>
+        <v>18.76671526530284</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.330063813335171</v>
+        <v>5.99175154530479</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188765</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
-        <v>20.94169908310518</v>
+        <v>18.15856240202556</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.42787196222153</v>
+        <v>7.497328686126028</v>
       </c>
       <c r="D6">
-        <v>3.833684112561818</v>
+        <v>2.243097952217362</v>
       </c>
       <c r="E6">
-        <v>12.69419583309908</v>
+        <v>9.30399972170351</v>
       </c>
       <c r="F6">
-        <v>23.75760278919321</v>
+        <v>23.04066688932331</v>
       </c>
       <c r="G6">
-        <v>28.89579634248972</v>
+        <v>33.3551434910373</v>
       </c>
       <c r="H6">
-        <v>13.6537657119091</v>
+        <v>9.784738608701169</v>
       </c>
       <c r="I6">
-        <v>22.20757951812507</v>
+        <v>18.72035683988411</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.330217219497447</v>
+        <v>5.985213630874064</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566597</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>20.93452006577364</v>
+        <v>18.11205183641883</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.43456932385955</v>
+        <v>7.589068933805855</v>
       </c>
       <c r="D7">
-        <v>3.834416356728021</v>
+        <v>2.243641130319748</v>
       </c>
       <c r="E7">
-        <v>12.70386421649469</v>
+        <v>9.425226826822126</v>
       </c>
       <c r="F7">
-        <v>23.85033575306436</v>
+        <v>23.50442156237957</v>
       </c>
       <c r="G7">
-        <v>29.10003389911527</v>
+        <v>34.1152916642796</v>
       </c>
       <c r="H7">
-        <v>13.66248395444727</v>
+        <v>9.903862049020621</v>
       </c>
       <c r="I7">
-        <v>22.25415191823602</v>
+        <v>19.04099890925533</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.329303655928605</v>
+        <v>6.030793002204354</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304767603</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
-        <v>20.98480539963678</v>
+        <v>18.43361588164323</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.46906490508427</v>
+        <v>7.992424752204196</v>
       </c>
       <c r="D8">
-        <v>3.83746557992337</v>
+        <v>2.245465282365713</v>
       </c>
       <c r="E8">
-        <v>12.75286433203494</v>
+        <v>9.957291961669638</v>
       </c>
       <c r="F8">
-        <v>24.27074128271646</v>
+        <v>25.48521349833844</v>
       </c>
       <c r="G8">
-        <v>30.00499325919393</v>
+        <v>37.33430335804179</v>
       </c>
       <c r="H8">
-        <v>13.70741082898358</v>
+        <v>10.42817453050243</v>
       </c>
       <c r="I8">
-        <v>22.47145089682981</v>
+        <v>20.42529708102656</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.329011947853408</v>
+        <v>6.23659738432768</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656867</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>21.21765833673262</v>
+        <v>19.81877033987973</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.55415950457142</v>
+        <v>8.771533886645411</v>
       </c>
       <c r="D9">
-        <v>3.84278785579802</v>
+        <v>2.246708306307116</v>
       </c>
       <c r="E9">
-        <v>12.87127721233435</v>
+        <v>10.98185106375542</v>
       </c>
       <c r="F9">
-        <v>25.12838031552727</v>
+        <v>29.11415208108972</v>
       </c>
       <c r="G9">
-        <v>31.77406878043176</v>
+        <v>43.17569024655511</v>
       </c>
       <c r="H9">
-        <v>13.81830698560672</v>
+        <v>11.44323869183573</v>
       </c>
       <c r="I9">
-        <v>22.93717509711494</v>
+        <v>23.01098300238599</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.341840360411052</v>
+        <v>6.654661833553386</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380644</v>
       </c>
       <c r="O9">
-        <v>21.71054551788774</v>
+        <v>22.39565093741648</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.62699022019643</v>
+        <v>9.332050753575194</v>
       </c>
       <c r="D10">
-        <v>3.84629491770482</v>
+        <v>2.245921257899956</v>
       </c>
       <c r="E10">
-        <v>12.97141709788208</v>
+        <v>11.71731410985073</v>
       </c>
       <c r="F10">
-        <v>25.77235484085012</v>
+        <v>31.70628742490294</v>
       </c>
       <c r="G10">
-        <v>33.05458916311118</v>
+        <v>47.21694472667149</v>
       </c>
       <c r="H10">
-        <v>13.91325508847762</v>
+        <v>12.17524025347636</v>
       </c>
       <c r="I10">
-        <v>23.3008192852084</v>
+        <v>24.82070756893636</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.359385048239249</v>
+        <v>6.968827106517504</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203862</v>
       </c>
       <c r="O10">
-        <v>22.09180496302788</v>
+        <v>24.20829094792116</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.66228121176306</v>
+        <v>9.58375049505127</v>
       </c>
       <c r="D11">
-        <v>3.847802294688922</v>
+        <v>2.245127872899647</v>
       </c>
       <c r="E11">
-        <v>13.01971159451615</v>
+        <v>12.04730067289439</v>
       </c>
       <c r="F11">
-        <v>26.06697412088463</v>
+        <v>32.89016983650712</v>
       </c>
       <c r="G11">
-        <v>33.62988588454041</v>
+        <v>48.98377226916902</v>
       </c>
       <c r="H11">
-        <v>13.95927001000017</v>
+        <v>12.50440009757288</v>
       </c>
       <c r="I11">
-        <v>23.47031043443026</v>
+        <v>25.62311188420282</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.369114970458936</v>
+        <v>7.112967175583224</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374475</v>
       </c>
       <c r="O11">
-        <v>22.26874091314627</v>
+        <v>25.12604195287339</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.67594794756019</v>
+        <v>9.678549126236279</v>
       </c>
       <c r="D12">
-        <v>3.848360398001512</v>
+        <v>2.244758864128694</v>
       </c>
       <c r="E12">
-        <v>13.0383826610261</v>
+        <v>12.17155383809191</v>
       </c>
       <c r="F12">
-        <v>26.17866826080337</v>
+        <v>33.33160037361311</v>
       </c>
       <c r="G12">
-        <v>33.84646349813296</v>
+        <v>49.64271687518209</v>
       </c>
       <c r="H12">
-        <v>13.97709061067313</v>
+        <v>12.62844566247432</v>
       </c>
       <c r="I12">
-        <v>23.53502473213233</v>
+        <v>25.95907515472586</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.373049282135611</v>
+        <v>7.167706373004676</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585682186</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>22.33618803746311</v>
+        <v>25.46811307511245</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.67299123339524</v>
+        <v>9.658155968037278</v>
       </c>
       <c r="D13">
-        <v>3.848240766474188</v>
+        <v>2.244841486250168</v>
       </c>
       <c r="E13">
-        <v>13.03434466247171</v>
+        <v>12.14482563088346</v>
       </c>
       <c r="F13">
-        <v>26.154608986113</v>
+        <v>33.23683424559353</v>
       </c>
       <c r="G13">
-        <v>33.79987991998842</v>
+        <v>49.50124787243028</v>
       </c>
       <c r="H13">
-        <v>13.97323519235046</v>
+        <v>12.60175751164115</v>
       </c>
       <c r="I13">
-        <v>23.52106455949439</v>
+        <v>25.88474019021417</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.372190876534379</v>
+        <v>7.155910596970191</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617571</v>
       </c>
       <c r="O13">
-        <v>22.32164321214134</v>
+        <v>25.39468277392162</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.663399560055</v>
+        <v>9.591560145376404</v>
       </c>
       <c r="D14">
-        <v>3.847848465165371</v>
+        <v>2.245098924349066</v>
       </c>
       <c r="E14">
-        <v>13.02124006446528</v>
+        <v>12.05753740085018</v>
       </c>
       <c r="F14">
-        <v>26.0761613290333</v>
+        <v>32.9266237124723</v>
       </c>
       <c r="G14">
-        <v>33.64773069960471</v>
+        <v>49.03818556232725</v>
       </c>
       <c r="H14">
-        <v>13.96072825039572</v>
+        <v>12.5146176455622</v>
       </c>
       <c r="I14">
-        <v>23.47562417072503</v>
+        <v>25.64792020709453</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.369433652557962</v>
+        <v>7.11746755751904</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489659</v>
+        <v>31.43851144188478</v>
       </c>
       <c r="O14">
-        <v>22.2742812366249</v>
+        <v>25.15429306854287</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.65756357761039</v>
+        <v>9.550700228556346</v>
       </c>
       <c r="D15">
-        <v>3.847606512817502</v>
+        <v>2.245247498057353</v>
       </c>
       <c r="E15">
-        <v>13.01326265647562</v>
+        <v>12.00397786809491</v>
       </c>
       <c r="F15">
-        <v>26.02812328403841</v>
+        <v>32.73571874512679</v>
       </c>
       <c r="G15">
-        <v>33.55436215727666</v>
+        <v>48.75323539175463</v>
       </c>
       <c r="H15">
-        <v>13.95311861412575</v>
+        <v>12.46116265700455</v>
       </c>
       <c r="I15">
-        <v>23.44785826721328</v>
+        <v>25.51806677768499</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.367777251676774</v>
+        <v>7.093939982456717</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549384</v>
       </c>
       <c r="O15">
-        <v>22.24532692856539</v>
+        <v>25.00633998410036</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.62472667925071</v>
+        <v>9.315531588236516</v>
       </c>
       <c r="D16">
-        <v>3.846194631687085</v>
+        <v>2.245963846794925</v>
       </c>
       <c r="E16">
-        <v>12.96831515068674</v>
+        <v>11.69565211919147</v>
       </c>
       <c r="F16">
-        <v>25.75312477416261</v>
+        <v>31.62794824102302</v>
       </c>
       <c r="G16">
-        <v>33.01682629264795</v>
+        <v>47.10005225342413</v>
       </c>
       <c r="H16">
-        <v>13.91030385047433</v>
+        <v>12.15364716998924</v>
       </c>
       <c r="I16">
-        <v>23.28981995863531</v>
+        <v>24.76784330173226</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.358784226635981</v>
+        <v>6.959430047768881</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>22.08030725983653</v>
+        <v>24.14754281043233</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.60513012757246</v>
+        <v>9.170388019714975</v>
       </c>
       <c r="D17">
-        <v>3.845305910785564</v>
+        <v>2.246287688521684</v>
       </c>
       <c r="E17">
-        <v>12.9414355183911</v>
+        <v>11.50529204130526</v>
       </c>
       <c r="F17">
-        <v>25.58476974013747</v>
+        <v>30.93598107561927</v>
       </c>
       <c r="G17">
-        <v>32.68504285504687</v>
+        <v>46.06765822297427</v>
       </c>
       <c r="H17">
-        <v>13.88475429673296</v>
+        <v>11.96397435185707</v>
       </c>
       <c r="I17">
-        <v>23.19387278324213</v>
+        <v>24.30221242708327</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.35371407584595</v>
+        <v>6.87721045557641</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.9381421901699</v>
+        <v>29.88120505119272</v>
       </c>
       <c r="O17">
-        <v>21.97992825560852</v>
+        <v>23.6787661499593</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.59406251079566</v>
+        <v>9.08659803902739</v>
       </c>
       <c r="D18">
-        <v>3.844786461840909</v>
+        <v>2.246433358498053</v>
       </c>
       <c r="E18">
-        <v>12.92623370685793</v>
+        <v>11.3953725770411</v>
       </c>
       <c r="F18">
-        <v>25.48810033995069</v>
+        <v>30.53339353948236</v>
       </c>
       <c r="G18">
-        <v>32.49354347185814</v>
+        <v>45.46710309626143</v>
       </c>
       <c r="H18">
-        <v>13.87032518876805</v>
+        <v>11.85452073624116</v>
       </c>
       <c r="I18">
-        <v>23.1390726165462</v>
+        <v>24.03243200569437</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.350962573605424</v>
+        <v>6.830036031151153</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568364</v>
+        <v>29.56404287680425</v>
       </c>
       <c r="O18">
-        <v>21.92252576625879</v>
+        <v>23.41084739587975</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.59035043845728</v>
+        <v>9.058176940618804</v>
       </c>
       <c r="D19">
-        <v>3.844609164858994</v>
+        <v>2.246475882408182</v>
       </c>
       <c r="E19">
-        <v>12.92113138313668</v>
+        <v>11.35808372489934</v>
       </c>
       <c r="F19">
-        <v>25.45540136201334</v>
+        <v>30.40212041019605</v>
       </c>
       <c r="G19">
-        <v>32.42859811871119</v>
+        <v>45.26260173745011</v>
       </c>
       <c r="H19">
-        <v>13.86548577975245</v>
+        <v>11.81740178835851</v>
       </c>
       <c r="I19">
-        <v>23.1205861446342</v>
+        <v>23.9407544390017</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.350059299437921</v>
+        <v>6.814084216060221</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985786</v>
+        <v>29.45587200880245</v>
       </c>
       <c r="O19">
-        <v>21.90314919282143</v>
+        <v>23.31978344347842</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.60719517618117</v>
+        <v>9.185870949685082</v>
       </c>
       <c r="D20">
-        <v>3.845401373986273</v>
+        <v>2.246257458315291</v>
       </c>
       <c r="E20">
-        <v>12.94427021076845</v>
+        <v>11.52560103559776</v>
       </c>
       <c r="F20">
-        <v>25.60267527220227</v>
+        <v>31.01011611637991</v>
       </c>
       <c r="G20">
-        <v>32.72043249904289</v>
+        <v>46.1782557582036</v>
       </c>
       <c r="H20">
-        <v>13.88744659862088</v>
+        <v>11.98420289812467</v>
       </c>
       <c r="I20">
-        <v>23.20404694578725</v>
+        <v>24.35198321208863</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.354236766142472</v>
+        <v>6.885951015286198</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799484618</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>21.99057973980244</v>
+        <v>23.7281845476652</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.66620871351054</v>
+        <v>9.611135192184616</v>
       </c>
       <c r="D21">
-        <v>3.847964038868174</v>
+        <v>2.245025219292468</v>
       </c>
       <c r="E21">
-        <v>13.02507889982575</v>
+        <v>12.08319550331881</v>
       </c>
       <c r="F21">
-        <v>26.09920070939486</v>
+        <v>33.01792572141098</v>
       </c>
       <c r="G21">
-        <v>33.69245701387599</v>
+        <v>49.17447104156209</v>
       </c>
       <c r="H21">
-        <v>13.96439118574074</v>
+        <v>12.54022932589045</v>
       </c>
       <c r="I21">
-        <v>23.48895711292354</v>
+        <v>25.71302369007263</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.370236750874012</v>
+        <v>7.128755090237476</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554064</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>22.28818097415044</v>
+        <v>25.22504854869847</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.7065384941542</v>
+        <v>9.886060157593199</v>
       </c>
       <c r="D22">
-        <v>3.849564794649635</v>
+        <v>2.243817101421213</v>
       </c>
       <c r="E22">
-        <v>13.08011881599129</v>
+        <v>12.44349416688744</v>
       </c>
       <c r="F22">
-        <v>26.42440601491071</v>
+        <v>34.29011909918517</v>
       </c>
       <c r="G22">
-        <v>34.32020302926971</v>
+        <v>51.07383266854985</v>
       </c>
       <c r="H22">
-        <v>14.01698051735743</v>
+        <v>12.90011676320389</v>
       </c>
       <c r="I22">
-        <v>23.67823623155879</v>
+        <v>26.71089247950319</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.3821487773586</v>
+        <v>7.288348929257478</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050592</v>
       </c>
       <c r="O22">
-        <v>22.48524919820985</v>
+        <v>26.21067566948357</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.68485529430153</v>
+        <v>9.739613549509704</v>
       </c>
       <c r="D23">
-        <v>3.848717238062495</v>
+        <v>2.244500839732969</v>
       </c>
       <c r="E23">
-        <v>13.05054305136357</v>
+        <v>12.25158391544147</v>
       </c>
       <c r="F23">
-        <v>26.25081040271152</v>
+        <v>33.61474200691303</v>
       </c>
       <c r="G23">
-        <v>33.9859258456891</v>
+        <v>50.06542005592441</v>
       </c>
       <c r="H23">
-        <v>13.98870551089878</v>
+        <v>12.70837060357794</v>
       </c>
       <c r="I23">
-        <v>23.57695091822147</v>
+        <v>26.1811671994393</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.375658567017156</v>
+        <v>7.203092587890899</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110912574</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>22.37985435241043</v>
+        <v>25.68749079202573</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.60626094819111</v>
+        <v>9.178872188279492</v>
       </c>
       <c r="D24">
-        <v>3.845358241561974</v>
+        <v>2.246271251128789</v>
       </c>
       <c r="E24">
-        <v>12.94298786167005</v>
+        <v>11.51642082721187</v>
       </c>
       <c r="F24">
-        <v>25.59457979821085</v>
+        <v>30.97661451886927</v>
       </c>
       <c r="G24">
-        <v>32.70443516708613</v>
+        <v>46.12827648484902</v>
       </c>
       <c r="H24">
-        <v>13.88622859925318</v>
+        <v>11.97505883981479</v>
       </c>
       <c r="I24">
-        <v>23.1994460778512</v>
+        <v>24.32948832364243</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.353999948776782</v>
+        <v>6.881999111659434</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188672</v>
+        <v>29.91317649911919</v>
       </c>
       <c r="O24">
-        <v>21.98576324384719</v>
+        <v>23.70584926699478</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.52930253894799</v>
+        <v>8.56256643645229</v>
       </c>
       <c r="D25">
-        <v>3.841418667015914</v>
+        <v>2.246649452261571</v>
       </c>
       <c r="E25">
-        <v>12.83689861319018</v>
+        <v>10.70736639180176</v>
       </c>
       <c r="F25">
-        <v>24.89346810154559</v>
+        <v>28.16106991023281</v>
       </c>
       <c r="G25">
-        <v>31.29776813676083</v>
+        <v>41.62745828042503</v>
       </c>
       <c r="H25">
-        <v>13.78590716680946</v>
+        <v>11.17070305040834</v>
       </c>
       <c r="I25">
-        <v>22.80721247484083</v>
+        <v>22.32666809239116</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.33693962636452</v>
+        <v>6.540213775946156</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.51708508088413</v>
       </c>
       <c r="O25">
-        <v>21.57362437670867</v>
+        <v>21.71474064736675</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.101113683792507</v>
+        <v>7.728824188570084</v>
       </c>
       <c r="D2">
-        <v>2.245811244287511</v>
+        <v>4.694000668246899</v>
       </c>
       <c r="E2">
-        <v>10.10043975315593</v>
+        <v>8.584155150276189</v>
       </c>
       <c r="F2">
-        <v>26.00516188310493</v>
+        <v>25.40585233186076</v>
       </c>
       <c r="G2">
-        <v>38.17289520709109</v>
+        <v>35.63092248049532</v>
       </c>
       <c r="H2">
-        <v>10.56960350018307</v>
+        <v>2.153321562193493</v>
       </c>
       <c r="I2">
-        <v>20.79219677404597</v>
+        <v>2.629148497795942</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.67396216143203</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>21.26146452609326</v>
       </c>
       <c r="L2">
-        <v>6.293414370763732</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>18.90044939871992</v>
       </c>
       <c r="N2">
-        <v>25.60720851682377</v>
+        <v>5.791403884116704</v>
       </c>
       <c r="O2">
-        <v>20.18515636868944</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.70266807386616</v>
+      </c>
+      <c r="P2">
+        <v>12.78693897581816</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.785127429569365</v>
+        <v>7.384393431216157</v>
       </c>
       <c r="D3">
-        <v>2.244637996577945</v>
+        <v>4.636276060243726</v>
       </c>
       <c r="E3">
-        <v>9.684023366103824</v>
+        <v>8.309827708624114</v>
       </c>
       <c r="F3">
-        <v>24.47814165683451</v>
+        <v>24.60217620314915</v>
       </c>
       <c r="G3">
-        <v>35.70289374062881</v>
+        <v>34.38844918581186</v>
       </c>
       <c r="H3">
-        <v>10.15860329878664</v>
+        <v>2.394891058996872</v>
       </c>
       <c r="I3">
-        <v>19.71867318833953</v>
+        <v>2.853018135269119</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.52794186759378</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20.74871625564907</v>
       </c>
       <c r="L3">
-        <v>6.129783097305863</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>17.64784279805619</v>
       </c>
       <c r="N3">
-        <v>24.22561817997341</v>
+        <v>5.704065575850631</v>
       </c>
       <c r="O3">
-        <v>19.11230077721725</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.88000429304023</v>
+      </c>
+      <c r="P3">
+        <v>12.92816516246009</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.590141953259868</v>
+        <v>7.161164231895734</v>
       </c>
       <c r="D4">
-        <v>2.243647185058657</v>
+        <v>4.599611248857356</v>
       </c>
       <c r="E4">
-        <v>9.426644215784998</v>
+        <v>8.135067073800505</v>
       </c>
       <c r="F4">
-        <v>23.50981335745258</v>
+        <v>24.10439418627582</v>
       </c>
       <c r="G4">
-        <v>34.12411338352229</v>
+        <v>33.61420013756285</v>
       </c>
       <c r="H4">
-        <v>9.905255642808646</v>
+        <v>2.548428409479267</v>
       </c>
       <c r="I4">
-        <v>19.04473516603605</v>
+        <v>2.996408706688831</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.44054581202747</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>20.43033790085358</v>
       </c>
       <c r="L4">
-        <v>6.031329006355099</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>16.83088685624474</v>
       </c>
       <c r="N4">
-        <v>23.33595077662918</v>
+        <v>5.649358092348525</v>
       </c>
       <c r="O4">
-        <v>18.43736112132938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.35063774894302</v>
+      </c>
+      <c r="P4">
+        <v>13.01670823825528</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.510549623673706</v>
+        <v>7.058881619770782</v>
       </c>
       <c r="D5">
-        <v>2.243179385190308</v>
+        <v>4.585138219099585</v>
       </c>
       <c r="E5">
-        <v>9.321475596011606</v>
+        <v>8.060132410874614</v>
       </c>
       <c r="F5">
-        <v>23.1078458176002</v>
+        <v>23.88989430407689</v>
       </c>
       <c r="G5">
-        <v>33.46543063599559</v>
+        <v>33.27666032757568</v>
       </c>
       <c r="H5">
-        <v>9.801902727079392</v>
+        <v>2.612869680013689</v>
       </c>
       <c r="I5">
-        <v>18.76671526530284</v>
+        <v>3.059468140462963</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.40193013871576</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>20.28931761605467</v>
       </c>
       <c r="L5">
-        <v>5.99175154530479</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>16.4815636634192</v>
       </c>
       <c r="N5">
-        <v>22.96331756195407</v>
+        <v>5.627241512450035</v>
       </c>
       <c r="O5">
-        <v>18.15856240202556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.124976702335</v>
+      </c>
+      <c r="P5">
+        <v>13.05346976284386</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.497328686126028</v>
+        <v>7.031473673806418</v>
       </c>
       <c r="D6">
-        <v>2.243097952217362</v>
+        <v>4.583668095423242</v>
       </c>
       <c r="E6">
-        <v>9.30399972170351</v>
+        <v>8.04495732700128</v>
       </c>
       <c r="F6">
-        <v>23.04066688932331</v>
+        <v>23.84100751328152</v>
       </c>
       <c r="G6">
-        <v>33.3551434910373</v>
+        <v>33.19655221913538</v>
       </c>
       <c r="H6">
-        <v>9.784738608701169</v>
+        <v>2.624310916190741</v>
       </c>
       <c r="I6">
-        <v>18.72035683988411</v>
+        <v>3.07403370976962</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.39117926155146</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>20.25299963021529</v>
       </c>
       <c r="L6">
-        <v>5.985213630874064</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>16.41754388460317</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>5.624104793213792</v>
       </c>
       <c r="O6">
-        <v>18.11205183641883</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.08225028080749</v>
+      </c>
+      <c r="P6">
+        <v>13.05987009339587</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.589068933805855</v>
+        <v>7.132192257506202</v>
       </c>
       <c r="D7">
-        <v>2.243641130319748</v>
+        <v>4.602033544399607</v>
       </c>
       <c r="E7">
-        <v>9.425226826822126</v>
+        <v>8.126940952042998</v>
       </c>
       <c r="F7">
-        <v>23.50442156237957</v>
+        <v>24.06574538624528</v>
       </c>
       <c r="G7">
-        <v>34.1152916642796</v>
+        <v>33.54504995401532</v>
       </c>
       <c r="H7">
-        <v>9.903862049020621</v>
+        <v>2.551071940907048</v>
       </c>
       <c r="I7">
-        <v>19.04099890925533</v>
+        <v>3.007927895360042</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.42812784847047</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>20.3935765205186</v>
       </c>
       <c r="L7">
-        <v>6.030793002204354</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>16.8121292669024</v>
       </c>
       <c r="N7">
-        <v>23.33096569062625</v>
+        <v>5.650567165609098</v>
       </c>
       <c r="O7">
-        <v>18.43361588164323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.33446999517115</v>
+      </c>
+      <c r="P7">
+        <v>13.0180046151732</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.992424752204196</v>
+        <v>7.577802548301229</v>
       </c>
       <c r="D8">
-        <v>2.245465282365713</v>
+        <v>4.677893478530347</v>
       </c>
       <c r="E8">
-        <v>9.957291961669638</v>
+        <v>8.481856132691703</v>
       </c>
       <c r="F8">
-        <v>25.48521349833844</v>
+        <v>25.08418709323069</v>
       </c>
       <c r="G8">
-        <v>37.33430335804179</v>
+        <v>35.12302746313794</v>
       </c>
       <c r="H8">
-        <v>10.42817453050243</v>
+        <v>2.237808373353587</v>
       </c>
       <c r="I8">
-        <v>20.42529708102656</v>
+        <v>2.719127607537468</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.60766024840346</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>21.04060789275276</v>
       </c>
       <c r="L8">
-        <v>6.23659738432768</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>18.46118605284406</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>5.763504295949725</v>
       </c>
       <c r="O8">
-        <v>19.81877033987973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>15.40778344521233</v>
+      </c>
+      <c r="P8">
+        <v>12.83663435002289</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.771533886645411</v>
+        <v>8.403482806314697</v>
       </c>
       <c r="D9">
-        <v>2.246708306307116</v>
+        <v>4.812077745582396</v>
       </c>
       <c r="E9">
-        <v>10.98185106375542</v>
+        <v>9.13864697103201</v>
       </c>
       <c r="F9">
-        <v>29.11415208108972</v>
+        <v>27.09795577345579</v>
       </c>
       <c r="G9">
-        <v>43.17569024655511</v>
+        <v>38.221453667563</v>
       </c>
       <c r="H9">
-        <v>11.44323869183573</v>
+        <v>1.660794701796027</v>
       </c>
       <c r="I9">
-        <v>23.01098300238599</v>
+        <v>2.765372111903759</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.99822037889763</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>22.33614444259122</v>
       </c>
       <c r="L9">
-        <v>6.654661833553386</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>21.34038063644144</v>
       </c>
       <c r="N9">
-        <v>28.34722074380644</v>
+        <v>5.973737214973558</v>
       </c>
       <c r="O9">
-        <v>22.39565093741648</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>17.33601737547565</v>
+      </c>
+      <c r="P9">
+        <v>12.49325366116373</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.332050753575194</v>
+        <v>8.869913778206714</v>
       </c>
       <c r="D10">
-        <v>2.245921257899956</v>
+        <v>4.919629163568678</v>
       </c>
       <c r="E10">
-        <v>11.71731410985073</v>
+        <v>9.456401378880422</v>
       </c>
       <c r="F10">
-        <v>31.70628742490294</v>
+        <v>28.37708679193992</v>
       </c>
       <c r="G10">
-        <v>47.21694472667149</v>
+        <v>40.1280548218015</v>
       </c>
       <c r="H10">
-        <v>12.17524025347636</v>
+        <v>1.843991321302179</v>
       </c>
       <c r="I10">
-        <v>24.82070756893636</v>
+        <v>3.118254807910287</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.23745612179448</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>23.11156209331693</v>
       </c>
       <c r="L10">
-        <v>6.968827106517504</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>23.18321529547352</v>
       </c>
       <c r="N10">
-        <v>30.48602834203862</v>
+        <v>6.061841653382037</v>
       </c>
       <c r="O10">
-        <v>24.20829094792116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>18.50035665812801</v>
+      </c>
+      <c r="P10">
+        <v>12.25928838655304</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.58375049505127</v>
+        <v>8.448489854731301</v>
       </c>
       <c r="D11">
-        <v>2.245127872899647</v>
+        <v>5.103259417491979</v>
       </c>
       <c r="E11">
-        <v>12.04730067289439</v>
+        <v>8.577117392925224</v>
       </c>
       <c r="F11">
-        <v>32.89016983650712</v>
+        <v>27.64011928799644</v>
       </c>
       <c r="G11">
-        <v>48.98377226916902</v>
+        <v>38.64684705780268</v>
       </c>
       <c r="H11">
-        <v>12.50440009757288</v>
+        <v>2.786445559551439</v>
       </c>
       <c r="I11">
-        <v>25.62311188420282</v>
+        <v>3.212141622091957</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.87546349283085</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.25277605728884</v>
       </c>
       <c r="L11">
-        <v>7.112967175583224</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>23.60997862788208</v>
       </c>
       <c r="N11">
-        <v>31.41016321374475</v>
+        <v>5.658434820670022</v>
       </c>
       <c r="O11">
-        <v>25.12604195287339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>17.95073126093699</v>
+      </c>
+      <c r="P11">
+        <v>12.25964929188438</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.678549126236279</v>
+        <v>8.051584297397769</v>
       </c>
       <c r="D12">
-        <v>2.244758864128694</v>
+        <v>5.247259148573651</v>
       </c>
       <c r="E12">
-        <v>12.17155383809191</v>
+        <v>7.945692686845653</v>
       </c>
       <c r="F12">
-        <v>33.33160037361311</v>
+        <v>26.77944081027913</v>
       </c>
       <c r="G12">
-        <v>49.64271687518209</v>
+        <v>37.05333496206339</v>
       </c>
       <c r="H12">
-        <v>12.62844566247432</v>
+        <v>4.084337005973779</v>
       </c>
       <c r="I12">
-        <v>25.95907515472586</v>
+        <v>3.22022577018499</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.53034444261448</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.40188209462514</v>
       </c>
       <c r="L12">
-        <v>7.167706373004676</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>23.6110570712976</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>5.438504708206226</v>
       </c>
       <c r="O12">
-        <v>25.46811307511245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>17.2512351290705</v>
+      </c>
+      <c r="P12">
+        <v>12.33127635164484</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.658155968037278</v>
+        <v>7.608295828737951</v>
       </c>
       <c r="D13">
-        <v>2.244841486250168</v>
+        <v>5.371986810849585</v>
       </c>
       <c r="E13">
-        <v>12.14482563088346</v>
+        <v>7.487852446260021</v>
       </c>
       <c r="F13">
-        <v>33.23683424559353</v>
+        <v>25.70202335121397</v>
       </c>
       <c r="G13">
-        <v>49.50124787243028</v>
+        <v>35.15116150689745</v>
       </c>
       <c r="H13">
-        <v>12.60175751164115</v>
+        <v>5.453211985425533</v>
       </c>
       <c r="I13">
-        <v>25.88474019021417</v>
+        <v>3.165353271743827</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.15669130572389</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.44468512661512</v>
       </c>
       <c r="L13">
-        <v>7.155910596970191</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>23.26884141054989</v>
       </c>
       <c r="N13">
-        <v>31.67947945617571</v>
+        <v>5.361229063558069</v>
       </c>
       <c r="O13">
-        <v>25.39468277392162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>16.35878411373835</v>
+      </c>
+      <c r="P13">
+        <v>12.45780083002854</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.591560145376404</v>
+        <v>7.273997848039476</v>
       </c>
       <c r="D14">
-        <v>2.245098924349066</v>
+        <v>5.452779613392438</v>
       </c>
       <c r="E14">
-        <v>12.05753740085018</v>
+        <v>7.292722250997786</v>
       </c>
       <c r="F14">
-        <v>32.9266237124723</v>
+        <v>24.83150424116284</v>
       </c>
       <c r="G14">
-        <v>49.03818556232725</v>
+        <v>33.64670132083536</v>
       </c>
       <c r="H14">
-        <v>12.5146176455622</v>
+        <v>6.485451397658148</v>
       </c>
       <c r="I14">
-        <v>25.64792020709453</v>
+        <v>3.099585890008558</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.87904554338673</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>19.7144579594941</v>
       </c>
       <c r="L14">
-        <v>7.11746755751904</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>22.86612042273614</v>
       </c>
       <c r="N14">
-        <v>31.43851144188478</v>
+        <v>5.39466364723551</v>
       </c>
       <c r="O14">
-        <v>25.15429306854287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>15.6323700731568</v>
+      </c>
+      <c r="P14">
+        <v>12.57211833394937</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.550700228556346</v>
+        <v>7.172959494909612</v>
       </c>
       <c r="D15">
-        <v>2.245247498057353</v>
+        <v>5.467960005752879</v>
       </c>
       <c r="E15">
-        <v>12.00397786809491</v>
+        <v>7.257482708610437</v>
       </c>
       <c r="F15">
-        <v>32.73571874512679</v>
+        <v>24.56184353567205</v>
       </c>
       <c r="G15">
-        <v>48.75323539175463</v>
+        <v>33.19348026598414</v>
       </c>
       <c r="H15">
-        <v>12.46116265700455</v>
+        <v>6.725032564900564</v>
       </c>
       <c r="I15">
-        <v>25.51806677768499</v>
+        <v>3.070522524616359</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.80229404860158</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>19.50358961786057</v>
       </c>
       <c r="L15">
-        <v>7.093939982456717</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>22.68862422927405</v>
       </c>
       <c r="N15">
-        <v>31.28998244549384</v>
+        <v>5.411467087929377</v>
       </c>
       <c r="O15">
-        <v>25.00633998410036</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>15.40898452463331</v>
+      </c>
+      <c r="P15">
+        <v>12.60909347352809</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.315531588236516</v>
+        <v>7.030471978845237</v>
       </c>
       <c r="D16">
-        <v>2.245963846794925</v>
+        <v>5.397639418956605</v>
       </c>
       <c r="E16">
-        <v>11.69565211919147</v>
+        <v>7.189888465622753</v>
       </c>
       <c r="F16">
-        <v>31.62794824102302</v>
+        <v>24.16320558602859</v>
       </c>
       <c r="G16">
-        <v>47.10005225342413</v>
+        <v>32.63375089384182</v>
       </c>
       <c r="H16">
-        <v>12.15364716998924</v>
+        <v>6.523364158195209</v>
       </c>
       <c r="I16">
-        <v>24.76784330173226</v>
+        <v>2.933213439149384</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.76193654863312</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.31943667607662</v>
       </c>
       <c r="L16">
-        <v>6.959430047768881</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>21.97238206693709</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>5.381382873708602</v>
       </c>
       <c r="O16">
-        <v>24.14754281043233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>15.04121654582162</v>
+      </c>
+      <c r="P16">
+        <v>12.66851187757968</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.170388019714975</v>
+        <v>7.09841224968691</v>
       </c>
       <c r="D17">
-        <v>2.246287688521684</v>
+        <v>5.299170443406597</v>
       </c>
       <c r="E17">
-        <v>11.50529204130526</v>
+        <v>7.216981483061229</v>
       </c>
       <c r="F17">
-        <v>30.93598107561927</v>
+        <v>24.33426145012127</v>
       </c>
       <c r="G17">
-        <v>46.06765822297427</v>
+        <v>33.0298047395253</v>
       </c>
       <c r="H17">
-        <v>11.96397435185707</v>
+        <v>5.789941714933742</v>
       </c>
       <c r="I17">
-        <v>24.30221242708327</v>
+        <v>2.862684011651427</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.88013729188512</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.57243971916094</v>
       </c>
       <c r="L17">
-        <v>6.87721045557641</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>21.63543668150086</v>
       </c>
       <c r="N17">
-        <v>29.88120505119272</v>
+        <v>5.327062919425321</v>
       </c>
       <c r="O17">
-        <v>23.6787661499593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>15.15834978634716</v>
+      </c>
+      <c r="P17">
+        <v>12.65522981387683</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.08659803902739</v>
+        <v>7.390057513138832</v>
       </c>
       <c r="D18">
-        <v>2.246433358498053</v>
+        <v>5.168403727382532</v>
       </c>
       <c r="E18">
-        <v>11.3953725770411</v>
+        <v>7.463756913209061</v>
       </c>
       <c r="F18">
-        <v>30.53339353948236</v>
+        <v>25.03653947826457</v>
       </c>
       <c r="G18">
-        <v>45.46710309626143</v>
+        <v>34.33411606680635</v>
       </c>
       <c r="H18">
-        <v>11.85452073624116</v>
+        <v>4.535261470749399</v>
       </c>
       <c r="I18">
-        <v>24.03243200569437</v>
+        <v>2.841343966745975</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.15548524984881</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>20.25539725662399</v>
       </c>
       <c r="L18">
-        <v>6.830036031151153</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>21.6078918324618</v>
       </c>
       <c r="N18">
-        <v>29.56404287680425</v>
+        <v>5.327937071052748</v>
       </c>
       <c r="O18">
-        <v>23.41084739587975</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>15.71801852552861</v>
+      </c>
+      <c r="P18">
+        <v>12.58534556144922</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.058176940618804</v>
+        <v>7.825110407086335</v>
       </c>
       <c r="D19">
-        <v>2.246475882408182</v>
+        <v>5.038584241843236</v>
       </c>
       <c r="E19">
-        <v>11.35808372489934</v>
+        <v>8.034560922814022</v>
       </c>
       <c r="F19">
-        <v>30.40212041019605</v>
+        <v>26.04355804381039</v>
       </c>
       <c r="G19">
-        <v>45.26260173745011</v>
+        <v>36.14830225143263</v>
       </c>
       <c r="H19">
-        <v>11.81740178835851</v>
+        <v>3.03708912935131</v>
       </c>
       <c r="I19">
-        <v>23.9407544390017</v>
+        <v>2.872193437846108</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.5165432146493</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>21.17527563783785</v>
       </c>
       <c r="L19">
-        <v>6.814084216060221</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>21.81138744348205</v>
       </c>
       <c r="N19">
-        <v>29.45587200880245</v>
+        <v>5.490275066396298</v>
       </c>
       <c r="O19">
-        <v>23.31978344347842</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>16.56135742209255</v>
+      </c>
+      <c r="P19">
+        <v>12.49450832551348</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.185870949685082</v>
+        <v>8.676198255144753</v>
       </c>
       <c r="D20">
-        <v>2.246257458315291</v>
+        <v>4.901162355825778</v>
       </c>
       <c r="E20">
-        <v>11.52560103559776</v>
+        <v>9.349577757305756</v>
       </c>
       <c r="F20">
-        <v>31.01011611637991</v>
+        <v>27.9398958187303</v>
       </c>
       <c r="G20">
-        <v>46.1782557582036</v>
+        <v>39.44714953664216</v>
       </c>
       <c r="H20">
-        <v>11.98420289812467</v>
+        <v>1.738593253678647</v>
       </c>
       <c r="I20">
-        <v>24.35198321208863</v>
+        <v>3.033504541244762</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.1368067338575</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>22.80584809178708</v>
       </c>
       <c r="L20">
-        <v>6.885951015286198</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>22.67789556817515</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>6.040530651331805</v>
       </c>
       <c r="O20">
-        <v>23.7281845476652</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>18.16362463626039</v>
+      </c>
+      <c r="P20">
+        <v>12.32541046372312</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.611135192184616</v>
+        <v>9.143651890098962</v>
       </c>
       <c r="D21">
-        <v>2.245025219292468</v>
+        <v>4.958851051935575</v>
       </c>
       <c r="E21">
-        <v>12.08319550331881</v>
+        <v>9.788881905585276</v>
       </c>
       <c r="F21">
-        <v>33.01792572141098</v>
+        <v>29.15760102312299</v>
       </c>
       <c r="G21">
-        <v>49.17447104156209</v>
+        <v>41.32896422231732</v>
       </c>
       <c r="H21">
-        <v>12.54022932589045</v>
+        <v>2.041463923717526</v>
       </c>
       <c r="I21">
-        <v>25.71302369007263</v>
+        <v>3.309318093349235</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.41305408808453</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>23.62248091302057</v>
       </c>
       <c r="L21">
-        <v>7.128755090237476</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>24.09415720902269</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>6.201950761988774</v>
       </c>
       <c r="O21">
-        <v>25.22504854869847</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>19.21241589976198</v>
+      </c>
+      <c r="P21">
+        <v>12.13388003854611</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.886060157593199</v>
+        <v>9.430137945568791</v>
       </c>
       <c r="D22">
-        <v>2.243817101421213</v>
+        <v>4.998791393154043</v>
       </c>
       <c r="E22">
-        <v>12.44349416688744</v>
+        <v>10.01097575549509</v>
       </c>
       <c r="F22">
-        <v>34.29011909918517</v>
+        <v>29.90649607755168</v>
       </c>
       <c r="G22">
-        <v>51.07383266854985</v>
+        <v>42.47347680810223</v>
       </c>
       <c r="H22">
-        <v>12.90011676320389</v>
+        <v>2.231984480311087</v>
       </c>
       <c r="I22">
-        <v>26.71089247950319</v>
+        <v>3.480360327859827</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.58248940684746</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>24.11970409694319</v>
       </c>
       <c r="L22">
-        <v>7.288348929257478</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>24.97163827460179</v>
       </c>
       <c r="N22">
-        <v>32.49403281050592</v>
+        <v>6.272712845727576</v>
       </c>
       <c r="O22">
-        <v>26.21067566948357</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>19.82444109284768</v>
+      </c>
+      <c r="P22">
+        <v>12.0123780777867</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.739613549509704</v>
+        <v>9.304066101508461</v>
       </c>
       <c r="D23">
-        <v>2.244500839732969</v>
+        <v>4.974265020552126</v>
       </c>
       <c r="E23">
-        <v>12.25158391544147</v>
+        <v>9.899993744542616</v>
       </c>
       <c r="F23">
-        <v>33.61474200691303</v>
+        <v>29.54296097651617</v>
       </c>
       <c r="G23">
-        <v>50.06542005592441</v>
+        <v>41.92705511251237</v>
       </c>
       <c r="H23">
-        <v>12.70837060357794</v>
+        <v>2.132380787302552</v>
       </c>
       <c r="I23">
-        <v>26.1811671994393</v>
+        <v>3.386890279417672</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.50477910044554</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>23.8907411552751</v>
       </c>
       <c r="L23">
-        <v>7.203092587890899</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>24.51917125355669</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>6.233279014465403</v>
       </c>
       <c r="O23">
-        <v>25.68749079202573</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>19.51193891576112</v>
+      </c>
+      <c r="P23">
+        <v>12.07501798765784</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.178872188279492</v>
+        <v>8.766249901607656</v>
       </c>
       <c r="D24">
-        <v>2.246271251128789</v>
+        <v>4.884272793166715</v>
       </c>
       <c r="E24">
-        <v>11.51642082721187</v>
+        <v>9.4569331502117</v>
       </c>
       <c r="F24">
-        <v>30.97661451886927</v>
+        <v>28.09313257688889</v>
       </c>
       <c r="G24">
-        <v>46.12827648484902</v>
+        <v>39.7252441135067</v>
       </c>
       <c r="H24">
-        <v>11.97505883981479</v>
+        <v>1.745257426323192</v>
       </c>
       <c r="I24">
-        <v>24.32948832364243</v>
+        <v>3.030477620325906</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.19431491998356</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>22.95611586107776</v>
       </c>
       <c r="L24">
-        <v>6.881999111659434</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>22.7067198097338</v>
       </c>
       <c r="N24">
-        <v>29.91317649911919</v>
+        <v>6.084844442937857</v>
       </c>
       <c r="O24">
-        <v>23.70584926699478</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>18.26226109648467</v>
+      </c>
+      <c r="P24">
+        <v>12.3185093744697</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.56256643645229</v>
+        <v>8.146171967696656</v>
       </c>
       <c r="D25">
-        <v>2.246649452261571</v>
+        <v>4.781796766629856</v>
       </c>
       <c r="E25">
-        <v>10.70736639180176</v>
+        <v>8.954908462297077</v>
       </c>
       <c r="F25">
-        <v>28.16106991023281</v>
+        <v>26.500206890074</v>
       </c>
       <c r="G25">
-        <v>41.62745828042503</v>
+        <v>37.29080381853889</v>
       </c>
       <c r="H25">
-        <v>11.17070305040834</v>
+        <v>1.815671157313377</v>
       </c>
       <c r="I25">
-        <v>22.32666809239116</v>
+        <v>2.633634474081486</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.87007084178187</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.93112460513382</v>
       </c>
       <c r="L25">
-        <v>6.540213775946156</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>20.58010639763883</v>
       </c>
       <c r="N25">
-        <v>27.51708508088413</v>
+        <v>5.920487567402564</v>
       </c>
       <c r="O25">
-        <v>21.71474064736675</v>
+        <v>16.81568024038962</v>
+      </c>
+      <c r="P25">
+        <v>12.58708481354218</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.728824188570084</v>
+        <v>6.213256197018886</v>
       </c>
       <c r="D2">
-        <v>4.694000668246899</v>
+        <v>4.764578706499499</v>
       </c>
       <c r="E2">
-        <v>8.584155150276189</v>
+        <v>8.263171443891707</v>
       </c>
       <c r="F2">
-        <v>25.40585233186076</v>
+        <v>23.74179369484357</v>
       </c>
       <c r="G2">
-        <v>35.63092248049532</v>
+        <v>32.2352821480909</v>
       </c>
       <c r="H2">
-        <v>2.153321562193493</v>
+        <v>2.090399671813658</v>
       </c>
       <c r="I2">
-        <v>2.629148497795942</v>
+        <v>2.538702686697393</v>
       </c>
       <c r="J2">
-        <v>11.67396216143203</v>
+        <v>11.39676521269103</v>
       </c>
       <c r="K2">
-        <v>21.26146452609326</v>
+        <v>19.51252002514808</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>16.12106201133682</v>
       </c>
       <c r="M2">
-        <v>18.90044939871992</v>
+        <v>12.97664246223259</v>
       </c>
       <c r="N2">
-        <v>5.791403884116704</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.70266807386616</v>
+        <v>18.38389705961573</v>
       </c>
       <c r="P2">
-        <v>12.78693897581816</v>
+        <v>6.011822132521373</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.11846961314252</v>
+      </c>
+      <c r="R2">
+        <v>12.7852336809923</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.384393431216157</v>
+        <v>5.962595337669764</v>
       </c>
       <c r="D3">
-        <v>4.636276060243726</v>
+        <v>4.671442083018348</v>
       </c>
       <c r="E3">
-        <v>8.309827708624114</v>
+        <v>8.032070120010463</v>
       </c>
       <c r="F3">
-        <v>24.60217620314915</v>
+        <v>23.09412595554931</v>
       </c>
       <c r="G3">
-        <v>34.38844918581186</v>
+        <v>31.30184723862367</v>
       </c>
       <c r="H3">
-        <v>2.394891058996872</v>
+        <v>2.305079934957776</v>
       </c>
       <c r="I3">
-        <v>2.853018135269119</v>
+        <v>2.728663951376967</v>
       </c>
       <c r="J3">
-        <v>11.52794186759378</v>
+        <v>11.26646207309175</v>
       </c>
       <c r="K3">
-        <v>20.74871625564907</v>
+        <v>19.15251028667279</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>16.01431937316369</v>
       </c>
       <c r="M3">
-        <v>17.64784279805619</v>
+        <v>12.52737141861615</v>
       </c>
       <c r="N3">
-        <v>5.704065575850631</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.88000429304023</v>
+        <v>17.19988596487055</v>
       </c>
       <c r="P3">
-        <v>12.92816516246009</v>
+        <v>5.930811646399305</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.34836537411354</v>
+      </c>
+      <c r="R3">
+        <v>12.89746880747831</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.161164231895734</v>
+        <v>5.799896050569832</v>
       </c>
       <c r="D4">
-        <v>4.599611248857356</v>
+        <v>4.612833420945746</v>
       </c>
       <c r="E4">
-        <v>8.135067073800505</v>
+        <v>7.88476291442683</v>
       </c>
       <c r="F4">
-        <v>24.10439418627582</v>
+        <v>22.69336487963751</v>
       </c>
       <c r="G4">
-        <v>33.61420013756285</v>
+        <v>30.72533048645939</v>
       </c>
       <c r="H4">
-        <v>2.548428409479267</v>
+        <v>2.441690832881914</v>
       </c>
       <c r="I4">
-        <v>2.996408706688831</v>
+        <v>2.850870295770991</v>
       </c>
       <c r="J4">
-        <v>11.44054581202747</v>
+        <v>11.18610784895123</v>
       </c>
       <c r="K4">
-        <v>20.43033790085358</v>
+        <v>18.92842100962091</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.94197524075346</v>
       </c>
       <c r="M4">
-        <v>16.83088685624474</v>
+        <v>12.26431887597955</v>
       </c>
       <c r="N4">
-        <v>5.649358092348525</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>14.35063774894302</v>
+        <v>16.42741849039849</v>
       </c>
       <c r="P4">
-        <v>13.01670823825528</v>
+        <v>5.88048652204205</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.85222652247453</v>
+      </c>
+      <c r="R4">
+        <v>12.96889249055505</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.058881619770782</v>
+        <v>5.724390824285402</v>
       </c>
       <c r="D5">
-        <v>4.585138219099585</v>
+        <v>4.589581413971923</v>
       </c>
       <c r="E5">
-        <v>8.060132410874614</v>
+        <v>7.82143026932464</v>
       </c>
       <c r="F5">
-        <v>23.88989430407689</v>
+        <v>22.51925479204042</v>
       </c>
       <c r="G5">
-        <v>33.27666032757568</v>
+        <v>30.47136499125518</v>
       </c>
       <c r="H5">
-        <v>2.612869680013689</v>
+        <v>2.499073671438161</v>
       </c>
       <c r="I5">
-        <v>3.059468140462963</v>
+        <v>2.905670341218037</v>
       </c>
       <c r="J5">
-        <v>11.40193013871576</v>
+        <v>11.14992272524589</v>
       </c>
       <c r="K5">
-        <v>20.28931761605467</v>
+        <v>18.82671062097597</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.90280194941094</v>
       </c>
       <c r="M5">
-        <v>16.4815636634192</v>
+        <v>12.15400884247741</v>
       </c>
       <c r="N5">
-        <v>5.627241512450035</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>14.124976702335</v>
+        <v>16.09706198464694</v>
       </c>
       <c r="P5">
-        <v>13.05346976284386</v>
+        <v>5.860316543806525</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.6405070556373</v>
+      </c>
+      <c r="R5">
+        <v>12.999042028126</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.031473673806418</v>
+        <v>5.703217718100642</v>
       </c>
       <c r="D6">
-        <v>4.583668095423242</v>
+        <v>4.5869027402037</v>
       </c>
       <c r="E6">
-        <v>8.04495732700128</v>
+        <v>7.808431852327703</v>
       </c>
       <c r="F6">
-        <v>23.84100751328152</v>
+        <v>22.47785075949675</v>
       </c>
       <c r="G6">
-        <v>33.19655221913538</v>
+        <v>30.40665318859284</v>
       </c>
       <c r="H6">
-        <v>2.624310916190741</v>
+        <v>2.509273255268876</v>
       </c>
       <c r="I6">
-        <v>3.07403370976962</v>
+        <v>2.919483561264051</v>
       </c>
       <c r="J6">
-        <v>11.39117926155146</v>
+        <v>11.13979424926952</v>
       </c>
       <c r="K6">
-        <v>20.25299963021529</v>
+        <v>18.79793250521026</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.88646463478912</v>
       </c>
       <c r="M6">
-        <v>16.41754388460317</v>
+        <v>12.12765651528798</v>
       </c>
       <c r="N6">
-        <v>5.624104793213792</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>14.08225028080749</v>
+        <v>16.03650341372443</v>
       </c>
       <c r="P6">
-        <v>13.05987009339587</v>
+        <v>5.857550961992089</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.60032559689222</v>
+      </c>
+      <c r="R6">
+        <v>13.00460435957193</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.132192257506202</v>
+        <v>5.780026602877255</v>
       </c>
       <c r="D7">
-        <v>4.602033544399607</v>
+        <v>4.617831282662721</v>
       </c>
       <c r="E7">
-        <v>8.126940952042998</v>
+        <v>7.878719329736428</v>
       </c>
       <c r="F7">
-        <v>24.06574538624528</v>
+        <v>22.63664263849977</v>
       </c>
       <c r="G7">
-        <v>33.54504995401532</v>
+        <v>30.73959493042911</v>
       </c>
       <c r="H7">
-        <v>2.551071940907048</v>
+        <v>2.444728912759821</v>
       </c>
       <c r="I7">
-        <v>3.007927895360042</v>
+        <v>2.864632876051058</v>
       </c>
       <c r="J7">
-        <v>11.42812784847047</v>
+        <v>11.12540923040005</v>
       </c>
       <c r="K7">
-        <v>20.3935765205186</v>
+        <v>18.88180329177034</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.90478909005898</v>
       </c>
       <c r="M7">
-        <v>16.8121292669024</v>
+        <v>12.23066503199007</v>
       </c>
       <c r="N7">
-        <v>5.650567165609098</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>14.33446999517115</v>
+        <v>16.40086143073487</v>
       </c>
       <c r="P7">
-        <v>13.0180046151732</v>
+        <v>5.881568237783427</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.83312991840745</v>
+      </c>
+      <c r="R7">
+        <v>12.97165705322857</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.577802548301229</v>
+        <v>6.112723755902319</v>
       </c>
       <c r="D8">
-        <v>4.677893478530347</v>
+        <v>4.743988701398878</v>
       </c>
       <c r="E8">
-        <v>8.481856132691703</v>
+        <v>8.180646377886246</v>
       </c>
       <c r="F8">
-        <v>25.08418709323069</v>
+        <v>23.40998830045869</v>
       </c>
       <c r="G8">
-        <v>35.12302746313794</v>
+        <v>32.08946566065619</v>
       </c>
       <c r="H8">
-        <v>2.237808373353587</v>
+        <v>2.167523659430686</v>
       </c>
       <c r="I8">
-        <v>2.719127607537468</v>
+        <v>2.621387471135986</v>
       </c>
       <c r="J8">
-        <v>11.60766024840346</v>
+        <v>11.17799547851194</v>
       </c>
       <c r="K8">
-        <v>21.04060789275276</v>
+        <v>19.30538817977735</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.02033288231006</v>
       </c>
       <c r="M8">
-        <v>18.46118605284406</v>
+        <v>12.75706974512415</v>
       </c>
       <c r="N8">
-        <v>5.763504295949725</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.40778344521233</v>
+        <v>17.94177411644526</v>
       </c>
       <c r="P8">
-        <v>12.83663435002289</v>
+        <v>5.985367662214537</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.83069898412065</v>
+      </c>
+      <c r="R8">
+        <v>12.8291630816516</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.403482806314697</v>
+        <v>6.718878227943688</v>
       </c>
       <c r="D9">
-        <v>4.812077745582396</v>
+        <v>4.966201135621245</v>
       </c>
       <c r="E9">
-        <v>9.13864697103201</v>
+        <v>8.735165065245271</v>
       </c>
       <c r="F9">
-        <v>27.09795577345579</v>
+        <v>25.02899718988007</v>
       </c>
       <c r="G9">
-        <v>38.221453667563</v>
+        <v>34.51185582227725</v>
       </c>
       <c r="H9">
-        <v>1.660794701796027</v>
+        <v>1.656063694369248</v>
       </c>
       <c r="I9">
-        <v>2.765372111903759</v>
+        <v>2.7896746612761</v>
       </c>
       <c r="J9">
-        <v>11.99822037889763</v>
+        <v>11.47504337839379</v>
       </c>
       <c r="K9">
-        <v>22.33614444259122</v>
+        <v>20.21296984666173</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>16.27516050573467</v>
       </c>
       <c r="M9">
-        <v>21.34038063644144</v>
+        <v>13.9500758364235</v>
       </c>
       <c r="N9">
-        <v>5.973737214973558</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>17.33601737547565</v>
+        <v>20.65802939140978</v>
       </c>
       <c r="P9">
-        <v>12.49325366116373</v>
+        <v>6.182205224607241</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.63114683203865</v>
+      </c>
+      <c r="R9">
+        <v>12.56355899943743</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.869913778206714</v>
+        <v>7.085786084712059</v>
       </c>
       <c r="D10">
-        <v>4.919629163568678</v>
+        <v>5.151304047864889</v>
       </c>
       <c r="E10">
-        <v>9.456401378880422</v>
+        <v>8.999391371453221</v>
       </c>
       <c r="F10">
-        <v>28.37708679193992</v>
+        <v>25.9458526249354</v>
       </c>
       <c r="G10">
-        <v>40.1280548218015</v>
+        <v>36.40214090326801</v>
       </c>
       <c r="H10">
-        <v>1.843991321302179</v>
+        <v>1.801793003821411</v>
       </c>
       <c r="I10">
-        <v>3.118254807910287</v>
+        <v>3.086735962924936</v>
       </c>
       <c r="J10">
-        <v>12.23745612179448</v>
+        <v>11.37951456919159</v>
       </c>
       <c r="K10">
-        <v>23.11156209331693</v>
+        <v>20.66598886456328</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>16.28953735816112</v>
       </c>
       <c r="M10">
-        <v>23.18321529547352</v>
+        <v>14.7019426114929</v>
       </c>
       <c r="N10">
-        <v>6.061841653382037</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>18.50035665812801</v>
+        <v>22.35930591063976</v>
       </c>
       <c r="P10">
-        <v>12.25928838655304</v>
+        <v>6.25575176072631</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.69649864231368</v>
+      </c>
+      <c r="R10">
+        <v>12.40405474124775</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.448489854731301</v>
+        <v>6.864957583075474</v>
       </c>
       <c r="D11">
-        <v>5.103259417491979</v>
+        <v>5.409484452368186</v>
       </c>
       <c r="E11">
-        <v>8.577117392925224</v>
+        <v>8.193722199804215</v>
       </c>
       <c r="F11">
-        <v>27.64011928799644</v>
+        <v>25.04035895151637</v>
       </c>
       <c r="G11">
-        <v>38.64684705780268</v>
+        <v>35.89073938400299</v>
       </c>
       <c r="H11">
-        <v>2.786445559551439</v>
+        <v>2.749091806530879</v>
       </c>
       <c r="I11">
-        <v>3.212141622091957</v>
+        <v>3.165282967958818</v>
       </c>
       <c r="J11">
-        <v>11.87546349283085</v>
+        <v>10.53132991855798</v>
       </c>
       <c r="K11">
-        <v>22.25277605728884</v>
+        <v>19.74511162473612</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>15.48452391304603</v>
       </c>
       <c r="M11">
-        <v>23.60997862788208</v>
+        <v>14.15333286864917</v>
       </c>
       <c r="N11">
-        <v>5.658434820670022</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>17.95073126093699</v>
+        <v>22.71521573661558</v>
       </c>
       <c r="P11">
-        <v>12.25964929188438</v>
+        <v>5.788366443113723</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>17.13062559721489</v>
+      </c>
+      <c r="R11">
+        <v>12.49356814646644</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.051584297397769</v>
+        <v>6.64204215345712</v>
       </c>
       <c r="D12">
-        <v>5.247259148573651</v>
+        <v>5.589151547340196</v>
       </c>
       <c r="E12">
-        <v>7.945692686845653</v>
+        <v>7.637891958759758</v>
       </c>
       <c r="F12">
-        <v>26.77944081027913</v>
+        <v>24.17643572336272</v>
       </c>
       <c r="G12">
-        <v>37.05333496206339</v>
+        <v>34.87091384933884</v>
       </c>
       <c r="H12">
-        <v>4.084337005973779</v>
+        <v>4.058785936017834</v>
       </c>
       <c r="I12">
-        <v>3.22022577018499</v>
+        <v>3.17118506357429</v>
       </c>
       <c r="J12">
-        <v>11.53034444261448</v>
+        <v>10.02829978645527</v>
       </c>
       <c r="K12">
-        <v>21.40188209462514</v>
+        <v>18.95275325246698</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.87116151171582</v>
       </c>
       <c r="M12">
-        <v>23.6110570712976</v>
+        <v>13.58603914357188</v>
       </c>
       <c r="N12">
-        <v>5.438504708206226</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>17.2512351290705</v>
+        <v>22.70832178609805</v>
       </c>
       <c r="P12">
-        <v>12.33127635164484</v>
+        <v>5.51141252772849</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>16.44840853505643</v>
+      </c>
+      <c r="R12">
+        <v>12.61669211978223</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.608295828737951</v>
+        <v>6.369089829390714</v>
       </c>
       <c r="D13">
-        <v>5.371986810849585</v>
+        <v>5.713982245795662</v>
       </c>
       <c r="E13">
-        <v>7.487852446260021</v>
+        <v>7.265216674780531</v>
       </c>
       <c r="F13">
-        <v>25.70202335121397</v>
+        <v>23.27222198588704</v>
       </c>
       <c r="G13">
-        <v>35.15116150689745</v>
+        <v>33.10745405434147</v>
       </c>
       <c r="H13">
-        <v>5.453211985425533</v>
+        <v>5.466229782564452</v>
       </c>
       <c r="I13">
-        <v>3.165353271743827</v>
+        <v>3.127066291812855</v>
       </c>
       <c r="J13">
-        <v>11.15669130572389</v>
+        <v>9.814331192911094</v>
       </c>
       <c r="K13">
-        <v>20.44468512661512</v>
+        <v>18.18387634676454</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.34043035069094</v>
       </c>
       <c r="M13">
-        <v>23.26884141054989</v>
+        <v>12.95033592919394</v>
       </c>
       <c r="N13">
-        <v>5.361229063558069</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>16.35878411373835</v>
+        <v>22.42361286872588</v>
       </c>
       <c r="P13">
-        <v>12.45780083002854</v>
+        <v>5.384969505045154</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.60854395142265</v>
+      </c>
+      <c r="R13">
+        <v>12.75837728812411</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.273997848039476</v>
+        <v>6.15815797585054</v>
       </c>
       <c r="D14">
-        <v>5.452779613392438</v>
+        <v>5.77771490666686</v>
       </c>
       <c r="E14">
-        <v>7.292722250997786</v>
+        <v>7.136312483730581</v>
       </c>
       <c r="F14">
-        <v>24.83150424116284</v>
+        <v>22.60239129738639</v>
       </c>
       <c r="G14">
-        <v>33.64670132083536</v>
+        <v>31.51495466905979</v>
       </c>
       <c r="H14">
-        <v>6.485451397658148</v>
+        <v>6.494169217424226</v>
       </c>
       <c r="I14">
-        <v>3.099585890008558</v>
+        <v>3.074926713804807</v>
       </c>
       <c r="J14">
-        <v>10.87904554338673</v>
+        <v>9.776276846243606</v>
       </c>
       <c r="K14">
-        <v>19.7144579594941</v>
+        <v>17.64337956162435</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.99429275514975</v>
       </c>
       <c r="M14">
-        <v>22.86612042273614</v>
+        <v>12.46490891968586</v>
       </c>
       <c r="N14">
-        <v>5.39466364723551</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>15.6323700731568</v>
+        <v>22.09099312154924</v>
       </c>
       <c r="P14">
-        <v>12.57211833394937</v>
+        <v>5.390604143539325</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.93511672070248</v>
+      </c>
+      <c r="R14">
+        <v>12.86475150667052</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.172959494909612</v>
+        <v>6.090155180729854</v>
       </c>
       <c r="D15">
-        <v>5.467960005752879</v>
+        <v>5.781839174011189</v>
       </c>
       <c r="E15">
-        <v>7.257482708610437</v>
+        <v>7.119293014379374</v>
       </c>
       <c r="F15">
-        <v>24.56184353567205</v>
+        <v>22.41625721288938</v>
       </c>
       <c r="G15">
-        <v>33.19348026598414</v>
+        <v>30.96337394658539</v>
       </c>
       <c r="H15">
-        <v>6.725032564900564</v>
+        <v>6.732387875779053</v>
       </c>
       <c r="I15">
-        <v>3.070522524616359</v>
+        <v>3.052540181218772</v>
       </c>
       <c r="J15">
-        <v>10.80229404860158</v>
+        <v>9.812267984196394</v>
       </c>
       <c r="K15">
-        <v>19.50358961786057</v>
+        <v>17.50397150937526</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.91580672216611</v>
       </c>
       <c r="M15">
-        <v>22.68862422927405</v>
+        <v>12.32354739711876</v>
       </c>
       <c r="N15">
-        <v>5.411467087929377</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>15.40898452463331</v>
+        <v>21.94381032587154</v>
       </c>
       <c r="P15">
-        <v>12.60909347352809</v>
+        <v>5.403459323385194</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.73178667950144</v>
+      </c>
+      <c r="R15">
+        <v>12.89241672202049</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.030471978845237</v>
+        <v>5.947001118837534</v>
       </c>
       <c r="D16">
-        <v>5.397639418956605</v>
+        <v>5.653215283206687</v>
       </c>
       <c r="E16">
-        <v>7.189888465622753</v>
+        <v>7.063883470932927</v>
       </c>
       <c r="F16">
-        <v>24.16320558602859</v>
+        <v>22.30385488544729</v>
       </c>
       <c r="G16">
-        <v>32.63375089384182</v>
+        <v>29.77885748409071</v>
       </c>
       <c r="H16">
-        <v>6.523364158195209</v>
+        <v>6.525840657135118</v>
       </c>
       <c r="I16">
-        <v>2.933213439149384</v>
+        <v>2.942129020114799</v>
       </c>
       <c r="J16">
-        <v>10.76193654863312</v>
+        <v>10.22880240667615</v>
       </c>
       <c r="K16">
-        <v>19.31943667607662</v>
+        <v>17.52461489135941</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>14.03741047874874</v>
       </c>
       <c r="M16">
-        <v>21.97238206693709</v>
+        <v>12.18439929748326</v>
       </c>
       <c r="N16">
-        <v>5.381382873708602</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>15.04121654582162</v>
+        <v>21.33888715349286</v>
       </c>
       <c r="P16">
-        <v>12.66851187757968</v>
+        <v>5.395328200742052</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.42355388568054</v>
+      </c>
+      <c r="R16">
+        <v>12.88986078301504</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.09841224968691</v>
+        <v>5.94672572465732</v>
       </c>
       <c r="D17">
-        <v>5.299170443406597</v>
+        <v>5.525101473631937</v>
       </c>
       <c r="E17">
-        <v>7.216981483061229</v>
+        <v>7.060462517112609</v>
       </c>
       <c r="F17">
-        <v>24.33426145012127</v>
+        <v>22.55872752116337</v>
       </c>
       <c r="G17">
-        <v>33.0298047395253</v>
+        <v>29.8466053018924</v>
       </c>
       <c r="H17">
-        <v>5.789941714933742</v>
+        <v>5.789686051435804</v>
       </c>
       <c r="I17">
-        <v>2.862684011651427</v>
+        <v>2.884411107178061</v>
       </c>
       <c r="J17">
-        <v>10.88013729188512</v>
+        <v>10.52352217190959</v>
       </c>
       <c r="K17">
-        <v>19.57243971916094</v>
+        <v>17.81692007142708</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.31218516128914</v>
       </c>
       <c r="M17">
-        <v>21.63543668150086</v>
+        <v>12.3260247339767</v>
       </c>
       <c r="N17">
-        <v>5.327062919425321</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>15.15834978634716</v>
+        <v>21.03913944553686</v>
       </c>
       <c r="P17">
-        <v>12.65522981387683</v>
+        <v>5.371298069502636</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.55330844661062</v>
+      </c>
+      <c r="R17">
+        <v>12.84068061427464</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.390057513138832</v>
+        <v>6.095765831579318</v>
       </c>
       <c r="D18">
-        <v>5.168403727382532</v>
+        <v>5.377853226495532</v>
       </c>
       <c r="E18">
-        <v>7.463756913209061</v>
+        <v>7.236557017227359</v>
       </c>
       <c r="F18">
-        <v>25.03653947826457</v>
+        <v>23.21801666039924</v>
       </c>
       <c r="G18">
-        <v>34.33411606680635</v>
+        <v>30.88104088618328</v>
       </c>
       <c r="H18">
-        <v>4.535261470749399</v>
+        <v>4.534305636158815</v>
       </c>
       <c r="I18">
-        <v>2.841343966745975</v>
+        <v>2.864408540926274</v>
       </c>
       <c r="J18">
-        <v>11.15548524984881</v>
+        <v>10.83753982921693</v>
       </c>
       <c r="K18">
-        <v>20.25539725662399</v>
+        <v>18.425236126944</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.79087255337474</v>
       </c>
       <c r="M18">
-        <v>21.6078918324618</v>
+        <v>12.75769898189205</v>
       </c>
       <c r="N18">
-        <v>5.327937071052748</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>15.71801852552861</v>
+        <v>21.00198701910311</v>
       </c>
       <c r="P18">
-        <v>12.58534556144922</v>
+        <v>5.414651300667831</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.09241969137858</v>
+      </c>
+      <c r="R18">
+        <v>12.7443405287979</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.825110407086335</v>
+        <v>6.353701262766551</v>
       </c>
       <c r="D19">
-        <v>5.038584241843236</v>
+        <v>5.238573059582519</v>
       </c>
       <c r="E19">
-        <v>8.034560922814022</v>
+        <v>7.717646235217603</v>
       </c>
       <c r="F19">
-        <v>26.04355804381039</v>
+        <v>24.10460829227341</v>
       </c>
       <c r="G19">
-        <v>36.14830225143263</v>
+        <v>32.435498903557</v>
       </c>
       <c r="H19">
-        <v>3.03708912935131</v>
+        <v>3.038723589091864</v>
       </c>
       <c r="I19">
-        <v>2.872193437846108</v>
+        <v>2.8899277089174</v>
       </c>
       <c r="J19">
-        <v>11.5165432146493</v>
+        <v>11.16200121645692</v>
       </c>
       <c r="K19">
-        <v>21.17527563783785</v>
+        <v>19.20110841908591</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>15.37017339302434</v>
       </c>
       <c r="M19">
-        <v>21.81138744348205</v>
+        <v>13.35375291230049</v>
       </c>
       <c r="N19">
-        <v>5.490275066396298</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>16.56135742209255</v>
+        <v>21.16639631733332</v>
       </c>
       <c r="P19">
-        <v>12.49450832551348</v>
+        <v>5.626594790853148</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.89409967076672</v>
+      </c>
+      <c r="R19">
+        <v>12.63171378992275</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.676198255144753</v>
+        <v>6.9228029103271</v>
       </c>
       <c r="D20">
-        <v>4.901162355825778</v>
+        <v>5.107282991234118</v>
       </c>
       <c r="E20">
-        <v>9.349577757305756</v>
+        <v>8.904276637410771</v>
       </c>
       <c r="F20">
-        <v>27.9398958187303</v>
+        <v>25.67389518700217</v>
       </c>
       <c r="G20">
-        <v>39.44714953664216</v>
+        <v>35.4863193642778</v>
       </c>
       <c r="H20">
-        <v>1.738593253678647</v>
+        <v>1.710982765970886</v>
       </c>
       <c r="I20">
-        <v>3.033504541244762</v>
+        <v>3.02262764112026</v>
       </c>
       <c r="J20">
-        <v>12.1368067338575</v>
+        <v>11.53357279511923</v>
       </c>
       <c r="K20">
-        <v>22.80584809178708</v>
+        <v>20.49542182953945</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>16.24819307305744</v>
       </c>
       <c r="M20">
-        <v>22.67789556817515</v>
+        <v>14.46234073313644</v>
       </c>
       <c r="N20">
-        <v>6.040530651331805</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>18.16362463626039</v>
+        <v>21.91665931382528</v>
       </c>
       <c r="P20">
-        <v>12.32541046372312</v>
+        <v>6.239152311774625</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.39797472094278</v>
+      </c>
+      <c r="R20">
+        <v>12.44785512583356</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.143651890098962</v>
+        <v>7.338213375549294</v>
       </c>
       <c r="D21">
-        <v>4.958851051935575</v>
+        <v>5.260408293666278</v>
       </c>
       <c r="E21">
-        <v>9.788881905585276</v>
+        <v>9.31287187443365</v>
       </c>
       <c r="F21">
-        <v>29.15760102312299</v>
+        <v>26.25280567667253</v>
       </c>
       <c r="G21">
-        <v>41.32896422231732</v>
+        <v>38.6004589574963</v>
       </c>
       <c r="H21">
-        <v>2.041463923717526</v>
+        <v>1.966672211274</v>
       </c>
       <c r="I21">
-        <v>3.309318093349235</v>
+        <v>3.24360032291046</v>
       </c>
       <c r="J21">
-        <v>12.41305408808453</v>
+        <v>10.71068035980223</v>
       </c>
       <c r="K21">
-        <v>23.62248091302057</v>
+        <v>20.81182141860601</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>16.23672515799114</v>
       </c>
       <c r="M21">
-        <v>24.09415720902269</v>
+        <v>15.02106315247325</v>
       </c>
       <c r="N21">
-        <v>6.201950761988774</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>19.21241589976198</v>
+        <v>23.09461835988104</v>
       </c>
       <c r="P21">
-        <v>12.13388003854611</v>
+        <v>6.395563312775895</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.30751546852037</v>
+      </c>
+      <c r="R21">
+        <v>12.33813324479838</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.430137945568791</v>
+        <v>7.605417615603905</v>
       </c>
       <c r="D22">
-        <v>4.998791393154043</v>
+        <v>5.366317841030444</v>
       </c>
       <c r="E22">
-        <v>10.01097575549509</v>
+        <v>9.522875338039684</v>
       </c>
       <c r="F22">
-        <v>29.90649607755168</v>
+        <v>26.57597252392463</v>
       </c>
       <c r="G22">
-        <v>42.47347680810223</v>
+        <v>40.64939375041749</v>
       </c>
       <c r="H22">
-        <v>2.231984480311087</v>
+        <v>2.127153120342908</v>
       </c>
       <c r="I22">
-        <v>3.480360327859827</v>
+        <v>3.378328284291644</v>
       </c>
       <c r="J22">
-        <v>12.58248940684746</v>
+        <v>10.13698799154164</v>
       </c>
       <c r="K22">
-        <v>24.11970409694319</v>
+        <v>20.97790402693314</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>16.19951552342663</v>
       </c>
       <c r="M22">
-        <v>24.97163827460179</v>
+        <v>15.35678972069271</v>
       </c>
       <c r="N22">
-        <v>6.272712845727576</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>19.82444109284768</v>
+        <v>23.81681902153103</v>
       </c>
       <c r="P22">
-        <v>12.0123780777867</v>
+        <v>6.460475696476026</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.82984865953379</v>
+      </c>
+      <c r="R22">
+        <v>12.27751113845731</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.304066101508461</v>
+        <v>7.475284247010087</v>
       </c>
       <c r="D23">
-        <v>4.974265020552126</v>
+        <v>5.299892108910991</v>
       </c>
       <c r="E23">
-        <v>9.899993744542616</v>
+        <v>9.414048439830616</v>
       </c>
       <c r="F23">
-        <v>29.54296097651617</v>
+        <v>26.48333508693414</v>
       </c>
       <c r="G23">
-        <v>41.92705511251237</v>
+        <v>39.43838578029538</v>
       </c>
       <c r="H23">
-        <v>2.132380787302552</v>
+        <v>2.044464931034219</v>
       </c>
       <c r="I23">
-        <v>3.386890279417672</v>
+        <v>3.30374402419078</v>
       </c>
       <c r="J23">
-        <v>12.50477910044554</v>
+        <v>10.55891074450759</v>
       </c>
       <c r="K23">
-        <v>23.8907411552751</v>
+        <v>20.95297647232074</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>16.26495691596806</v>
       </c>
       <c r="M23">
-        <v>24.51917125355669</v>
+        <v>15.22798545681243</v>
       </c>
       <c r="N23">
-        <v>6.233279014465403</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>19.51193891576112</v>
+        <v>23.46287609966955</v>
       </c>
       <c r="P23">
-        <v>12.07501798765784</v>
+        <v>6.424296700236197</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.57198294776803</v>
+      </c>
+      <c r="R23">
+        <v>12.30168782149566</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.766249901607656</v>
+        <v>6.986192981622496</v>
       </c>
       <c r="D24">
-        <v>4.884272793166715</v>
+        <v>5.086453420104263</v>
       </c>
       <c r="E24">
-        <v>9.4569331502117</v>
+        <v>9.003720999741308</v>
       </c>
       <c r="F24">
-        <v>28.09313257688889</v>
+        <v>25.81560289567905</v>
       </c>
       <c r="G24">
-        <v>39.7252441135067</v>
+        <v>35.72511304601412</v>
       </c>
       <c r="H24">
-        <v>1.745257426323192</v>
+        <v>1.716837622100235</v>
       </c>
       <c r="I24">
-        <v>3.030477620325906</v>
+        <v>3.016649138013127</v>
       </c>
       <c r="J24">
-        <v>12.19431491998356</v>
+        <v>11.59204977412747</v>
       </c>
       <c r="K24">
-        <v>22.95611586107776</v>
+        <v>20.62947377182853</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>16.35048246010436</v>
       </c>
       <c r="M24">
-        <v>22.7067198097338</v>
+        <v>14.56263819177751</v>
       </c>
       <c r="N24">
-        <v>6.084844442937857</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>18.26226109648467</v>
+        <v>21.94193585302285</v>
       </c>
       <c r="P24">
-        <v>12.3185093744697</v>
+        <v>6.287740959211104</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.49227612291513</v>
+      </c>
+      <c r="R24">
+        <v>12.43535589966562</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.146171967696656</v>
+        <v>6.522285455430894</v>
       </c>
       <c r="D25">
-        <v>4.781796766629856</v>
+        <v>4.910702525256944</v>
       </c>
       <c r="E25">
-        <v>8.954908462297077</v>
+        <v>8.577554009086363</v>
       </c>
       <c r="F25">
-        <v>26.500206890074</v>
+        <v>24.56669902827023</v>
       </c>
       <c r="G25">
-        <v>37.29080381853889</v>
+        <v>33.65859076416277</v>
       </c>
       <c r="H25">
-        <v>1.815671157313377</v>
+        <v>1.792359044870182</v>
       </c>
       <c r="I25">
-        <v>2.633634474081486</v>
+        <v>2.681619352216383</v>
       </c>
       <c r="J25">
-        <v>11.87007084178187</v>
+        <v>11.44292844246335</v>
       </c>
       <c r="K25">
-        <v>21.93112460513382</v>
+        <v>19.93406645004927</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>16.18425629345595</v>
       </c>
       <c r="M25">
-        <v>20.58010639763883</v>
+        <v>13.59254237071555</v>
       </c>
       <c r="N25">
-        <v>5.920487567402564</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>16.81568024038962</v>
+        <v>19.95162113976173</v>
       </c>
       <c r="P25">
-        <v>12.58708481354218</v>
+        <v>6.132772093525293</v>
       </c>
       <c r="Q25">
+        <v>16.1500154906583</v>
+      </c>
+      <c r="R25">
+        <v>12.6353780993257</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
